--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E946F4-F255-4B45-8A3A-1C586DE5D4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8308B0-3542-417F-BE30-215E58F3FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="615" windowWidth="25725" windowHeight="14985" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="645" windowWidth="28395" windowHeight="14955" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -33,21 +33,11 @@
     <sheet name="月度処理" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="421">
   <si>
     <t>No.</t>
   </si>
@@ -1307,12 +1297,24 @@
     <t>2022/06/28  0:00:00</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>シャラパティさん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>スさん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤダナ-さん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,6 +1372,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1649,7 +1659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,21 +1793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1807,11 +1802,29 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20325,20 +20338,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -20385,24 +20398,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="50"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="10" t="s">
         <v>350</v>
       </c>
@@ -20430,36 +20443,36 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="55" t="s">
         <v>306</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="52">
+      <c r="L6" s="47">
         <v>180</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="52" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="52">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="47">
         <v>7777</v>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="55" t="s">
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
       <c r="AB6" s="10" t="s">
         <v>354</v>
       </c>
@@ -20481,36 +20494,36 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="55" t="s">
         <v>306</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="52">
+      <c r="L7" s="47">
         <v>200</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="52">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="47">
         <v>1234</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="52">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="47">
         <v>2345</v>
       </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
       <c r="AB7" s="10" t="s">
         <v>354</v>
       </c>
@@ -20532,36 +20545,36 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="55" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="52">
+      <c r="L8" s="47">
         <v>210</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="52" t="s">
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="52">
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="47">
         <v>3456</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="52">
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="47">
         <v>234</v>
       </c>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
       <c r="AB8" s="10" t="s">
         <v>354</v>
       </c>
@@ -20579,26 +20592,26 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="56"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -20614,26 +20627,26 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="56"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -20649,26 +20662,26 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -20684,26 +20697,26 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -20719,26 +20732,26 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="56"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -20754,26 +20767,26 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -20977,13 +20990,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="B13:D13"/>
@@ -20998,64 +21062,13 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22589,20 +22602,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -22644,22 +22657,22 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -22687,35 +22700,35 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="56"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="54"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="49"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -22726,35 +22739,35 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="54"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="49"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -22765,35 +22778,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="56"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="49"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -22804,35 +22817,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="56"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="54"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="49"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -22843,35 +22856,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="56"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="49"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -22882,35 +22895,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="54"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="49"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -22921,35 +22934,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="49"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -22960,35 +22973,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="56"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="54"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="49"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -22999,35 +23012,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="54"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="49"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -23210,16 +23223,82 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -23240,82 +23319,16 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24159,6 +24172,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
     <mergeCell ref="X16:AC16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
@@ -24171,76 +24254,6 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25328,8 +25341,8 @@
   </sheetPr>
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25414,20 +25427,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -25474,24 +25487,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="50"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="10" t="s">
         <v>91</v>
       </c>
@@ -25527,51 +25540,51 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="55" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="52">
+      <c r="L6" s="47">
         <v>255555</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="52">
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="47">
         <v>6666</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="52">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="47">
         <v>7777</v>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="55" t="s">
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="55" t="s">
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55" t="s">
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="55" t="s">
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="54"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="49"/>
       <c r="AK6" s="7" t="s">
         <v>100</v>
       </c>
@@ -25588,35 +25601,35 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="54"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="49"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -25627,35 +25640,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="56"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="49"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -25666,35 +25679,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="56"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="54"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="49"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -25705,35 +25718,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="56"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="49"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -25744,35 +25757,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="54"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="49"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -25783,35 +25796,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="49"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -25822,35 +25835,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="56"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="54"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="49"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -25861,35 +25874,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="54"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="49"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -26104,12 +26117,15 @@
       <c r="AJ33" s="6"/>
       <c r="AK33" s="9"/>
     </row>
-    <row r="70" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C70" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A71" s="57" t="s">
+        <v>418</v>
+      </c>
       <c r="D71" s="35" t="s">
         <v>113</v>
       </c>
@@ -26123,7 +26139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.4">
       <c r="I72" t="s">
         <v>117</v>
       </c>
@@ -26134,12 +26150,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.4">
       <c r="I73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.4">
       <c r="I74" t="s">
         <v>121</v>
       </c>
@@ -26155,7 +26171,7 @@
       <c r="AO74" s="24"/>
       <c r="AP74" s="23"/>
     </row>
-    <row r="75" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.4">
       <c r="I75" t="s">
         <v>122</v>
       </c>
@@ -26174,7 +26190,7 @@
       </c>
       <c r="AP75" s="7"/>
     </row>
-    <row r="76" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.4">
       <c r="AF76" s="1"/>
       <c r="AG76" t="s">
         <v>127</v>
@@ -26184,7 +26200,7 @@
       </c>
       <c r="AP76" s="7"/>
     </row>
-    <row r="77" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.4">
       <c r="O77" s="22" t="s">
         <v>125</v>
       </c>
@@ -26199,7 +26215,7 @@
       </c>
       <c r="AP77" s="7"/>
     </row>
-    <row r="78" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.4">
       <c r="O78" s="22"/>
       <c r="P78" s="24"/>
       <c r="Q78" s="24"/>
@@ -26219,7 +26235,7 @@
       <c r="AF78" s="1"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.4">
       <c r="O79" s="1"/>
       <c r="P79" t="s">
         <v>131</v>
@@ -26231,7 +26247,7 @@
       <c r="AF79" s="1"/>
       <c r="AP79" s="7"/>
     </row>
-    <row r="80" spans="3:42" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.4">
       <c r="O80" s="5"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -26353,6 +26369,9 @@
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A93" s="57" t="s">
+        <v>418</v>
+      </c>
       <c r="I93" t="s">
         <v>152</v>
       </c>
@@ -26363,6 +26382,9 @@
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A96" s="57" t="s">
+        <v>419</v>
+      </c>
       <c r="D96" s="35" t="s">
         <v>154</v>
       </c>
@@ -26373,7 +26395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I97" t="s">
         <v>157</v>
       </c>
@@ -26381,7 +26403,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A99" s="57" t="s">
+        <v>419</v>
+      </c>
       <c r="D99" s="35" t="s">
         <v>159</v>
       </c>
@@ -26392,22 +26417,22 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I100" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I101" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.4">
       <c r="L102" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.4">
       <c r="C103" s="13" t="s">
         <v>164</v>
       </c>
@@ -26415,7 +26440,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.4">
       <c r="C104" s="13"/>
       <c r="L104" s="13"/>
       <c r="AW104" s="22"/>
@@ -26430,7 +26455,10 @@
       <c r="BF104" s="24"/>
       <c r="BG104" s="23"/>
     </row>
-    <row r="105" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A105" s="57" t="s">
+        <v>420</v>
+      </c>
       <c r="D105" s="35" t="s">
         <v>166</v>
       </c>
@@ -26449,7 +26477,7 @@
       </c>
       <c r="BG105" s="7"/>
     </row>
-    <row r="106" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I106" t="s">
         <v>169</v>
       </c>
@@ -26474,7 +26502,7 @@
       </c>
       <c r="BG106" s="7"/>
     </row>
-    <row r="107" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I107" t="s">
         <v>171</v>
       </c>
@@ -26500,7 +26528,7 @@
       </c>
       <c r="BG107" s="7"/>
     </row>
-    <row r="108" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.4">
       <c r="I108" t="s">
         <v>172</v>
       </c>
@@ -26515,7 +26543,7 @@
       <c r="AW108" s="1"/>
       <c r="BG108" s="7"/>
     </row>
-    <row r="109" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.4">
       <c r="D109" t="s">
         <v>173</v>
       </c>
@@ -26538,7 +26566,7 @@
       <c r="AW109" s="1"/>
       <c r="BG109" s="7"/>
     </row>
-    <row r="110" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.4">
       <c r="E110" t="s">
         <v>174</v>
       </c>
@@ -26551,7 +26579,7 @@
       <c r="AW110" s="1"/>
       <c r="BG110" s="7"/>
     </row>
-    <row r="111" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.4">
       <c r="G111" t="s">
         <v>142</v>
       </c>
@@ -26561,7 +26589,7 @@
       <c r="AW111" s="1"/>
       <c r="BG111" s="7"/>
     </row>
-    <row r="112" spans="3:59" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.4">
       <c r="G112" s="21" t="s">
         <v>114</v>
       </c>
@@ -26640,16 +26668,82 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -26670,82 +26764,16 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29107,6 +29135,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="F135:AG135"/>
     <mergeCell ref="AH135:AJ135"/>
@@ -29117,36 +29175,6 @@
     <mergeCell ref="Q136:AG136"/>
     <mergeCell ref="AH136:AJ136"/>
     <mergeCell ref="AK136:AO136"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8308B0-3542-417F-BE30-215E58F3FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E976E2-60E3-43F5-AAE8-FC68FAAAAA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="645" windowWidth="28395" windowHeight="14955" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="285" windowWidth="28395" windowHeight="14955" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="521">
   <si>
     <t>No.</t>
   </si>
@@ -1309,12 +1309,500 @@
     <t>ヤダナ-さん</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>項目名(英）</t>
+  </si>
+  <si>
+    <t>項目名(日本）</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>支払日</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>overTime</t>
+  </si>
+  <si>
+    <t>残業時間</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>不足時間</t>
+  </si>
+  <si>
+    <t>overTimePlus</t>
+  </si>
+  <si>
+    <t>残業加算</t>
+  </si>
+  <si>
+    <t>shortageReduce</t>
+  </si>
+  <si>
+    <t>稼働不足減</t>
+  </si>
+  <si>
+    <t>transportExpense</t>
+  </si>
+  <si>
+    <t>specialAddition</t>
+  </si>
+  <si>
+    <t>特別加算</t>
+  </si>
+  <si>
+    <t>allowancePlus</t>
+  </si>
+  <si>
+    <t>手当加算</t>
+  </si>
+  <si>
+    <t>allowanceReduce</t>
+  </si>
+  <si>
+    <t>手当減算</t>
+  </si>
+  <si>
+    <t>allowanceReason</t>
+  </si>
+  <si>
+    <t>手当理由</t>
+  </si>
+  <si>
+    <t>welfarePensionSelf</t>
+  </si>
+  <si>
+    <t>厚生年金控除個人</t>
+  </si>
+  <si>
+    <t>welfarePensionComp</t>
+  </si>
+  <si>
+    <t>厚生年金控除会社</t>
+  </si>
+  <si>
+    <t>welfareHealthComp</t>
+  </si>
+  <si>
+    <t>厚生健康控除会社</t>
+  </si>
+  <si>
+    <t>welfareHealthSelf</t>
+  </si>
+  <si>
+    <t>厚生健康控除個人</t>
+  </si>
+  <si>
+    <t>welfareBaby</t>
+  </si>
+  <si>
+    <t>厚生控除子育(会社)</t>
+  </si>
+  <si>
+    <t>eplyInsSelf</t>
+  </si>
+  <si>
+    <t>雇用保険個人負担</t>
+  </si>
+  <si>
+    <t>eplyInsComp</t>
+  </si>
+  <si>
+    <t>雇用保険会社負担</t>
+  </si>
+  <si>
+    <t>eplyInsWithdraw</t>
+  </si>
+  <si>
+    <t>雇用保拠出金（会社)</t>
+  </si>
+  <si>
+    <t>wkAcccpsIns</t>
+  </si>
+  <si>
+    <t>労災保険（会社負担のみ）</t>
+  </si>
+  <si>
+    <t>withholdingTax</t>
+  </si>
+  <si>
+    <t>源泉控除</t>
+  </si>
+  <si>
+    <t>municipalTax</t>
+  </si>
+  <si>
+    <t>住民税控除</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>社宅家賃控除</t>
+  </si>
+  <si>
+    <t>rentalMgmtFee</t>
+  </si>
+  <si>
+    <t>社宅共益費控除</t>
+  </si>
+  <si>
+    <t>specialReduce</t>
+  </si>
+  <si>
+    <t>特別控除</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>総額</t>
+  </si>
+  <si>
+    <t>totalFee</t>
+  </si>
+  <si>
+    <t>総費用</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>deleteFlg</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>更新日</t>
+  </si>
+  <si>
+    <t>salaryinfo</t>
+  </si>
+  <si>
+    <t>emplyeeテーブルのemployeeID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>採番する</t>
+    <rPh sb="0" eb="2">
+      <t>ｻｲﾊﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>現状最大monthの次の年月</t>
+    <rPh sb="0" eb="2">
+      <t>ｹﾞﾝｼﾞｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｻｲﾀﾞｲ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ﾂｷﾞ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ﾈﾝｹﾞﾂ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定：monthカラムの次年月の20日</t>
+    <rPh sb="0" eb="2">
+      <t>ｺﾃｲ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ﾂｷﾞ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ﾈﾝｹﾞﾂ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ｶ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_basesalaryのbaseSalary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：対象社員IDの当年度</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾀｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ｼｬｲﾝ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ﾄｳﾈﾝﾄﾞ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件全社員分（status=0）</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ｾﾞﾝｼｬｲﾝ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ﾌﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workinfoのworkTime　-　m_basesalaryのwkPeriodTo　マイナスの場合、０とする</t>
+    <rPh sb="49" eb="51">
+      <t>ﾊﾞｱｲ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_basesalaryのwkPeriodFrom　-　workinfoのworkTime　マイナスの場合、０とする</t>
+    <rPh sb="51" eb="53">
+      <t>ﾊﾞｱｲ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_basesalaryのplusPriceHour　×　No.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_basesalaryのminusPriceHour　×　No.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportinfoのtransport　＋　transportinfoのbusinessTrip</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件①対象社員、②No.2の前月</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾀｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ｼｬｲﾝ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ｾﾞﾝｹﾞﾂ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：contractの社員ID＝No.1　AND　contractのcontractID＝　workinfoのcontractID　</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ｼｬｲﾝ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>ｶﾗ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_welfarefeeのannuityRatio　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：①year＝対象年度、AND　②area＝’東京'　AND　③salaryFrom&lt;　No.4　&lt;=　salaryTo　</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ﾀｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ﾄｳｷｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_welfarefeeのnotCareRatio/careRatio　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：①year＝対象年度、AND　②area＝’東京'　AND　③salaryFrom&lt;　No.4　&lt;=　salaryTo　AND　④年齢＜４０notCareRatioを使う</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ﾀｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ﾄｳｷｮｳ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ﾈﾝﾚｲ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ﾂｶ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：①year＝対象年度、AND　②area＝’東京'　AND　③salaryFrom&lt;　No.4　&lt;=　salaryTo　AND　④年齢&gt;=４０careRatioを使う</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ﾀｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ﾄｳｷｮｳ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ﾈﾝﾚｲ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ﾂｶ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_welfarebabyrateのrate　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：年度</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_emplyinsraterateのeplyInsSelfRate　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_emplyinsraterateのeplyInsCompRate　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_emplyinsraterateのwithdrawRate　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_emplyinsraterateのwkAcccpsInsRate　×　No.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_taxetcのwithholdingTax</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：年度、社員</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｼｬｲﾝ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_taxetcのmunicipalTaxX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：年度、社員、月</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ﾈﾝﾄﾞ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｼｬｲﾝ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ｹﾞﾂ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本給</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.4-No.8-No.12-No.14-No.17-No.19-(No.23からNo.27)+No.7+(No.9~No.11）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.28+No.15+No.16+No.18+No.20＋No.21+No.22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>システム日付</t>
+    <rPh sb="4" eb="6">
+      <t>ﾋﾂﾞｹ</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,8 +1870,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1396,8 +1907,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1653,13 +2188,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,10 +2313,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1793,6 +2343,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1802,28 +2367,97 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20338,20 +20972,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -20398,24 +21032,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10" t="s">
         <v>350</v>
       </c>
@@ -20443,36 +21077,36 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47">
+      <c r="L6" s="52">
         <v>180</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="53" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
       <c r="AB6" s="10" t="s">
         <v>354</v>
       </c>
@@ -20494,36 +21128,36 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47">
+      <c r="L7" s="52">
         <v>200</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47" t="s">
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52">
         <v>1234</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47">
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52">
         <v>2345</v>
       </c>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
       <c r="AB7" s="10" t="s">
         <v>354</v>
       </c>
@@ -20545,36 +21179,36 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="51" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47">
+      <c r="L8" s="52">
         <v>210</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47" t="s">
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47">
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52">
         <v>3456</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47">
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52">
         <v>234</v>
       </c>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
       <c r="AB8" s="10" t="s">
         <v>354</v>
       </c>
@@ -20592,26 +21226,26 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -20627,26 +21261,26 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -20662,26 +21296,26 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -20697,26 +21331,26 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -20732,26 +21366,26 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -20767,26 +21401,26 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -20990,36 +21624,41 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="B9:D9"/>
@@ -21034,41 +21673,36 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22602,20 +23236,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -22657,22 +23291,22 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -22700,35 +23334,35 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="49"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -22739,35 +23373,35 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="49"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -22778,35 +23412,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="49"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -22817,35 +23451,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -22856,35 +23490,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -22895,35 +23529,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -22934,35 +23568,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -22973,35 +23607,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -23012,35 +23646,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -23223,42 +23857,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -23279,56 +23927,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24172,16 +24806,66 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -24194,66 +24878,16 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25339,10 +25973,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BG120"/>
+  <dimension ref="A1:BG154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25427,20 +26061,20 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="46" t="s">
         <v>42</v>
       </c>
@@ -25487,24 +26121,24 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="54" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="10" t="s">
         <v>91</v>
       </c>
@@ -25540,51 +26174,51 @@
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="51" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="47">
+      <c r="L6" s="52">
         <v>255555</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="47">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52">
         <v>6666</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="47">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52">
         <v>7777</v>
       </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="53" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="53" t="s">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="53" t="s">
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="53" t="s">
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="49"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="7" t="s">
         <v>100</v>
       </c>
@@ -25601,35 +26235,35 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="49"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -25640,35 +26274,35 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="49"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -25679,35 +26313,35 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="49"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -25718,35 +26352,35 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -25757,35 +26391,35 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -25796,35 +26430,35 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -25835,35 +26469,35 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -25874,35 +26508,35 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -26123,7 +26757,7 @@
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D71" s="35" t="s">
@@ -26349,7 +26983,7 @@
       </c>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="37" t="s">
         <v>417</v>
       </c>
       <c r="B92" t="s">
@@ -26369,7 +27003,7 @@
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="38" t="s">
         <v>418</v>
       </c>
       <c r="I93" t="s">
@@ -26382,7 +27016,7 @@
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="38" t="s">
         <v>419</v>
       </c>
       <c r="D96" s="35" t="s">
@@ -26404,7 +27038,7 @@
       </c>
     </row>
     <row r="99" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="38" t="s">
         <v>419</v>
       </c>
       <c r="D99" s="35" t="s">
@@ -26456,168 +27090,611 @@
       <c r="BG104" s="23"/>
     </row>
     <row r="105" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AW105" s="1"/>
-      <c r="AX105" t="s">
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="38"/>
+      <c r="AA105" s="38"/>
+      <c r="AB105" s="38"/>
+      <c r="AC105" s="38"/>
+      <c r="AD105" s="57"/>
+      <c r="AE105" s="57"/>
+      <c r="AF105" s="57"/>
+      <c r="AG105" s="57"/>
+      <c r="AH105" s="57"/>
+      <c r="AI105" s="57"/>
+      <c r="AJ105" s="57"/>
+      <c r="AK105" s="57"/>
+      <c r="AL105" s="57"/>
+      <c r="AM105" s="57"/>
+      <c r="AN105" s="57"/>
+      <c r="AO105" s="57"/>
+      <c r="AP105" s="57"/>
+      <c r="AQ105" s="57"/>
+      <c r="AR105" s="57"/>
+      <c r="AS105" s="57"/>
+      <c r="AT105" s="57"/>
+      <c r="AU105" s="57"/>
+      <c r="AV105" s="57"/>
+      <c r="AW105" s="59"/>
+      <c r="AX105" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="AZ105" s="35" t="s">
+      <c r="AY105" s="57"/>
+      <c r="AZ105" s="58" t="s">
         <v>126</v>
       </c>
       <c r="BG105" s="7"/>
     </row>
     <row r="106" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="I106" t="s">
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AF106" s="22" t="s">
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="38"/>
+      <c r="R106" s="38"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
+      <c r="AA106" s="38"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="38"/>
+      <c r="AD106" s="57"/>
+      <c r="AE106" s="57"/>
+      <c r="AF106" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="AG106" s="23"/>
-      <c r="AI106" s="22" t="s">
+      <c r="AG106" s="61"/>
+      <c r="AH106" s="57"/>
+      <c r="AI106" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="AJ106" s="23"/>
-      <c r="AS106" s="25" t="s">
+      <c r="AJ106" s="61"/>
+      <c r="AK106" s="57"/>
+      <c r="AL106" s="57"/>
+      <c r="AM106" s="57"/>
+      <c r="AN106" s="57"/>
+      <c r="AO106" s="57"/>
+      <c r="AP106" s="57"/>
+      <c r="AQ106" s="57"/>
+      <c r="AR106" s="57"/>
+      <c r="AS106" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="AT106" s="26"/>
-      <c r="AW106" s="1"/>
-      <c r="AX106" t="s">
+      <c r="AT106" s="63"/>
+      <c r="AU106" s="57"/>
+      <c r="AV106" s="57"/>
+      <c r="AW106" s="59"/>
+      <c r="AX106" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="AZ106" t="s">
+      <c r="AY106" s="57"/>
+      <c r="AZ106" s="57" t="s">
         <v>128</v>
       </c>
       <c r="BG106" s="7"/>
     </row>
     <row r="107" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="I107" t="s">
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AF107" s="22"/>
-      <c r="AG107" s="24"/>
-      <c r="AH107" s="24"/>
-      <c r="AI107" s="24"/>
-      <c r="AJ107" s="24"/>
-      <c r="AK107" s="24"/>
-      <c r="AL107" s="24"/>
-      <c r="AM107" s="24"/>
-      <c r="AN107" s="24"/>
-      <c r="AO107" s="24"/>
-      <c r="AP107" s="24"/>
-      <c r="AQ107" s="24"/>
-      <c r="AR107" s="24"/>
-      <c r="AS107" s="24"/>
-      <c r="AT107" s="24"/>
-      <c r="AU107" s="23"/>
-      <c r="AW107" s="1"/>
-      <c r="AX107" t="s">
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="57"/>
+      <c r="AE107" s="57"/>
+      <c r="AF107" s="60"/>
+      <c r="AG107" s="64"/>
+      <c r="AH107" s="64"/>
+      <c r="AI107" s="64"/>
+      <c r="AJ107" s="64"/>
+      <c r="AK107" s="64"/>
+      <c r="AL107" s="64"/>
+      <c r="AM107" s="64"/>
+      <c r="AN107" s="64"/>
+      <c r="AO107" s="64"/>
+      <c r="AP107" s="64"/>
+      <c r="AQ107" s="64"/>
+      <c r="AR107" s="64"/>
+      <c r="AS107" s="64"/>
+      <c r="AT107" s="64"/>
+      <c r="AU107" s="61"/>
+      <c r="AV107" s="57"/>
+      <c r="AW107" s="59"/>
+      <c r="AX107" s="57" t="s">
         <v>130</v>
       </c>
+      <c r="AY107" s="57"/>
+      <c r="AZ107" s="57"/>
       <c r="BG107" s="7"/>
     </row>
     <row r="108" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="I108" t="s">
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AF108" s="1"/>
-      <c r="AG108" t="s">
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="38"/>
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="38"/>
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38"/>
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="38"/>
+      <c r="AD108" s="57"/>
+      <c r="AE108" s="57"/>
+      <c r="AF108" s="59"/>
+      <c r="AG108" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AT108" s="25" t="s">
+      <c r="AH108" s="57"/>
+      <c r="AI108" s="57"/>
+      <c r="AJ108" s="57"/>
+      <c r="AK108" s="57"/>
+      <c r="AL108" s="57"/>
+      <c r="AM108" s="57"/>
+      <c r="AN108" s="57"/>
+      <c r="AO108" s="57"/>
+      <c r="AP108" s="57"/>
+      <c r="AQ108" s="57"/>
+      <c r="AR108" s="57"/>
+      <c r="AS108" s="57"/>
+      <c r="AT108" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="AU108" s="26"/>
-      <c r="AW108" s="1"/>
+      <c r="AU108" s="63"/>
+      <c r="AV108" s="57"/>
+      <c r="AW108" s="59"/>
+      <c r="AX108" s="57"/>
+      <c r="AY108" s="57"/>
+      <c r="AZ108" s="57"/>
       <c r="BG108" s="7"/>
     </row>
     <row r="109" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="D109" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AF109" s="5"/>
-      <c r="AG109" s="6"/>
-      <c r="AH109" s="6"/>
-      <c r="AI109" s="6"/>
-      <c r="AJ109" s="6"/>
-      <c r="AK109" s="6"/>
-      <c r="AL109" s="6"/>
-      <c r="AM109" s="6"/>
-      <c r="AN109" s="6"/>
-      <c r="AO109" s="6"/>
-      <c r="AP109" s="6"/>
-      <c r="AQ109" s="6"/>
-      <c r="AR109" s="6"/>
-      <c r="AS109" s="6"/>
-      <c r="AT109" s="6"/>
-      <c r="AU109" s="9"/>
-      <c r="AW109" s="1"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="38"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
+      <c r="V109" s="38"/>
+      <c r="W109" s="38"/>
+      <c r="X109" s="38"/>
+      <c r="Y109" s="38"/>
+      <c r="Z109" s="38"/>
+      <c r="AA109" s="38"/>
+      <c r="AB109" s="38"/>
+      <c r="AC109" s="38"/>
+      <c r="AD109" s="57"/>
+      <c r="AE109" s="57"/>
+      <c r="AF109" s="65"/>
+      <c r="AG109" s="66"/>
+      <c r="AH109" s="66"/>
+      <c r="AI109" s="66"/>
+      <c r="AJ109" s="66"/>
+      <c r="AK109" s="66"/>
+      <c r="AL109" s="66"/>
+      <c r="AM109" s="66"/>
+      <c r="AN109" s="66"/>
+      <c r="AO109" s="66"/>
+      <c r="AP109" s="66"/>
+      <c r="AQ109" s="66"/>
+      <c r="AR109" s="66"/>
+      <c r="AS109" s="66"/>
+      <c r="AT109" s="66"/>
+      <c r="AU109" s="67"/>
+      <c r="AV109" s="57"/>
+      <c r="AW109" s="59"/>
+      <c r="AX109" s="57"/>
+      <c r="AY109" s="57"/>
+      <c r="AZ109" s="57"/>
       <c r="BG109" s="7"/>
     </row>
     <row r="110" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="E110" t="s">
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G110" t="s">
+      <c r="F110" s="38"/>
+      <c r="G110" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="T110" t="s">
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AW110" s="1"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="38"/>
+      <c r="AA110" s="38"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="38"/>
+      <c r="AD110" s="57"/>
+      <c r="AE110" s="57"/>
+      <c r="AF110" s="57"/>
+      <c r="AG110" s="57"/>
+      <c r="AH110" s="57"/>
+      <c r="AI110" s="57"/>
+      <c r="AJ110" s="57"/>
+      <c r="AK110" s="57"/>
+      <c r="AL110" s="57"/>
+      <c r="AM110" s="57"/>
+      <c r="AN110" s="57"/>
+      <c r="AO110" s="57"/>
+      <c r="AP110" s="57"/>
+      <c r="AQ110" s="57"/>
+      <c r="AR110" s="57"/>
+      <c r="AS110" s="57"/>
+      <c r="AT110" s="57"/>
+      <c r="AU110" s="57"/>
+      <c r="AV110" s="57"/>
+      <c r="AW110" s="59"/>
+      <c r="AX110" s="57"/>
+      <c r="AY110" s="57"/>
+      <c r="AZ110" s="57"/>
       <c r="BG110" s="7"/>
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="G111" t="s">
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="U111" t="s">
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="38"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+      <c r="U111" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AW111" s="1"/>
+      <c r="V111" s="38"/>
+      <c r="W111" s="38"/>
+      <c r="X111" s="38"/>
+      <c r="Y111" s="38"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="38"/>
+      <c r="AB111" s="38"/>
+      <c r="AC111" s="38"/>
+      <c r="AD111" s="57"/>
+      <c r="AE111" s="57"/>
+      <c r="AF111" s="57"/>
+      <c r="AG111" s="57"/>
+      <c r="AH111" s="57"/>
+      <c r="AI111" s="57"/>
+      <c r="AJ111" s="57"/>
+      <c r="AK111" s="57"/>
+      <c r="AL111" s="57"/>
+      <c r="AM111" s="57"/>
+      <c r="AN111" s="57"/>
+      <c r="AO111" s="57"/>
+      <c r="AP111" s="57"/>
+      <c r="AQ111" s="57"/>
+      <c r="AR111" s="57"/>
+      <c r="AS111" s="57"/>
+      <c r="AT111" s="57"/>
+      <c r="AU111" s="57"/>
+      <c r="AV111" s="57"/>
+      <c r="AW111" s="59"/>
+      <c r="AX111" s="57"/>
+      <c r="AY111" s="57"/>
+      <c r="AZ111" s="57"/>
       <c r="BG111" s="7"/>
     </row>
     <row r="112" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="G112" s="21" t="s">
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="U112" t="s">
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="38"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AW112" s="1"/>
-      <c r="AX112" t="s">
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="38"/>
+      <c r="Y112" s="38"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="38"/>
+      <c r="AB112" s="38"/>
+      <c r="AC112" s="38"/>
+      <c r="AD112" s="57"/>
+      <c r="AE112" s="57"/>
+      <c r="AF112" s="57"/>
+      <c r="AG112" s="57"/>
+      <c r="AH112" s="57"/>
+      <c r="AI112" s="57"/>
+      <c r="AJ112" s="57"/>
+      <c r="AK112" s="57"/>
+      <c r="AL112" s="57"/>
+      <c r="AM112" s="57"/>
+      <c r="AN112" s="57"/>
+      <c r="AO112" s="57"/>
+      <c r="AP112" s="57"/>
+      <c r="AQ112" s="57"/>
+      <c r="AR112" s="57"/>
+      <c r="AS112" s="57"/>
+      <c r="AT112" s="57"/>
+      <c r="AU112" s="57"/>
+      <c r="AV112" s="57"/>
+      <c r="AW112" s="59"/>
+      <c r="AX112" s="57" t="s">
         <v>100</v>
       </c>
+      <c r="AY112" s="57"/>
+      <c r="AZ112" s="57"/>
       <c r="BG112" s="7"/>
     </row>
-    <row r="113" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="U113" t="s">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="38"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
+      <c r="R113" s="38"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="38"/>
+      <c r="U113" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AW113" s="1"/>
+      <c r="V113" s="38"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="38"/>
+      <c r="Y113" s="38"/>
+      <c r="Z113" s="38"/>
+      <c r="AA113" s="38"/>
+      <c r="AB113" s="38"/>
+      <c r="AC113" s="38"/>
+      <c r="AD113" s="57"/>
+      <c r="AE113" s="57"/>
+      <c r="AF113" s="57"/>
+      <c r="AG113" s="57"/>
+      <c r="AH113" s="57"/>
+      <c r="AI113" s="57"/>
+      <c r="AJ113" s="57"/>
+      <c r="AK113" s="57"/>
+      <c r="AL113" s="57"/>
+      <c r="AM113" s="57"/>
+      <c r="AN113" s="57"/>
+      <c r="AO113" s="57"/>
+      <c r="AP113" s="57"/>
+      <c r="AQ113" s="57"/>
+      <c r="AR113" s="57"/>
+      <c r="AS113" s="57"/>
+      <c r="AT113" s="57"/>
+      <c r="AU113" s="57"/>
+      <c r="AV113" s="57"/>
+      <c r="AW113" s="59"/>
+      <c r="AX113" s="57"/>
+      <c r="AY113" s="57"/>
+      <c r="AZ113" s="57"/>
       <c r="BD113" s="25" t="s">
         <v>134</v>
       </c>
       <c r="BE113" s="26"/>
       <c r="BG113" s="7"/>
     </row>
-    <row r="114" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="6"/>
-      <c r="AY114" s="6"/>
-      <c r="AZ114" s="6"/>
+    <row r="114" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="38"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+      <c r="R114" s="38"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="38"/>
+      <c r="U114" s="38"/>
+      <c r="V114" s="38"/>
+      <c r="W114" s="38"/>
+      <c r="X114" s="38"/>
+      <c r="Y114" s="38"/>
+      <c r="Z114" s="38"/>
+      <c r="AA114" s="38"/>
+      <c r="AB114" s="38"/>
+      <c r="AC114" s="38"/>
+      <c r="AD114" s="57"/>
+      <c r="AE114" s="57"/>
+      <c r="AF114" s="57"/>
+      <c r="AG114" s="57"/>
+      <c r="AH114" s="57"/>
+      <c r="AI114" s="57"/>
+      <c r="AJ114" s="57"/>
+      <c r="AK114" s="57"/>
+      <c r="AL114" s="57"/>
+      <c r="AM114" s="57"/>
+      <c r="AN114" s="57"/>
+      <c r="AO114" s="57"/>
+      <c r="AP114" s="57"/>
+      <c r="AQ114" s="57"/>
+      <c r="AR114" s="57"/>
+      <c r="AS114" s="57"/>
+      <c r="AT114" s="57"/>
+      <c r="AU114" s="57"/>
+      <c r="AV114" s="57"/>
+      <c r="AW114" s="65"/>
+      <c r="AX114" s="66"/>
+      <c r="AY114" s="66"/>
+      <c r="AZ114" s="66"/>
       <c r="BA114" s="6"/>
       <c r="BB114" s="6" t="s">
         <v>135</v>
@@ -26628,82 +27705,1328 @@
       <c r="BF114" s="6"/>
       <c r="BG114" s="9"/>
     </row>
-    <row r="116" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="E116" t="s">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+      <c r="O115" s="38"/>
+      <c r="P115" s="38"/>
+      <c r="Q115" s="38"/>
+      <c r="R115" s="38"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="38"/>
+      <c r="U115" s="38"/>
+      <c r="V115" s="38"/>
+      <c r="W115" s="38"/>
+      <c r="X115" s="38"/>
+      <c r="Y115" s="38"/>
+      <c r="Z115" s="38"/>
+      <c r="AA115" s="38"/>
+      <c r="AB115" s="38"/>
+      <c r="AC115" s="38"/>
+      <c r="AD115" s="57"/>
+      <c r="AE115" s="57"/>
+      <c r="AF115" s="57"/>
+      <c r="AG115" s="57"/>
+      <c r="AH115" s="57"/>
+      <c r="AI115" s="57"/>
+      <c r="AJ115" s="57"/>
+      <c r="AK115" s="57"/>
+      <c r="AL115" s="57"/>
+      <c r="AM115" s="57"/>
+      <c r="AN115" s="57"/>
+      <c r="AO115" s="57"/>
+      <c r="AP115" s="57"/>
+      <c r="AQ115" s="57"/>
+      <c r="AR115" s="57"/>
+      <c r="AS115" s="57"/>
+      <c r="AT115" s="57"/>
+      <c r="AU115" s="57"/>
+      <c r="AV115" s="57"/>
+      <c r="AW115" s="57"/>
+      <c r="AX115" s="57"/>
+      <c r="AY115" s="57"/>
+      <c r="AZ115" s="57"/>
+    </row>
+    <row r="116" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="F116" s="38"/>
+      <c r="G116" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="T116" t="s">
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+      <c r="R116" s="38"/>
+      <c r="S116" s="38"/>
+      <c r="T116" s="38" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="117" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="G117" s="37"/>
-      <c r="U117" t="s">
+      <c r="U116" s="38"/>
+      <c r="V116" s="38"/>
+      <c r="W116" s="38"/>
+      <c r="X116" s="38"/>
+      <c r="Y116" s="38"/>
+      <c r="Z116" s="38"/>
+      <c r="AA116" s="38"/>
+      <c r="AB116" s="38"/>
+      <c r="AC116" s="38"/>
+      <c r="AD116" s="57"/>
+      <c r="AE116" s="57"/>
+      <c r="AF116" s="57"/>
+      <c r="AG116" s="57"/>
+      <c r="AH116" s="57"/>
+      <c r="AI116" s="57"/>
+      <c r="AJ116" s="57"/>
+      <c r="AK116" s="57"/>
+      <c r="AL116" s="57"/>
+      <c r="AM116" s="57"/>
+      <c r="AN116" s="57"/>
+      <c r="AO116" s="57"/>
+      <c r="AP116" s="57"/>
+      <c r="AQ116" s="57"/>
+      <c r="AR116" s="57"/>
+      <c r="AS116" s="57"/>
+      <c r="AT116" s="57"/>
+      <c r="AU116" s="57"/>
+      <c r="AV116" s="57"/>
+      <c r="AW116" s="57"/>
+      <c r="AX116" s="57"/>
+      <c r="AY116" s="57"/>
+      <c r="AZ116" s="57"/>
+    </row>
+    <row r="117" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="38"/>
+      <c r="O117" s="38"/>
+      <c r="P117" s="38"/>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="38"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="118" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="G118" s="21" t="s">
+      <c r="V117" s="38"/>
+      <c r="W117" s="38"/>
+      <c r="X117" s="38"/>
+      <c r="Y117" s="38"/>
+      <c r="Z117" s="38"/>
+      <c r="AA117" s="38"/>
+      <c r="AB117" s="38"/>
+      <c r="AC117" s="38"/>
+      <c r="AD117" s="57"/>
+      <c r="AE117" s="57"/>
+      <c r="AF117" s="57"/>
+      <c r="AG117" s="57"/>
+      <c r="AH117" s="57"/>
+      <c r="AI117" s="57"/>
+      <c r="AJ117" s="57"/>
+      <c r="AK117" s="57"/>
+      <c r="AL117" s="57"/>
+      <c r="AM117" s="57"/>
+      <c r="AN117" s="57"/>
+      <c r="AO117" s="57"/>
+      <c r="AP117" s="57"/>
+      <c r="AQ117" s="57"/>
+      <c r="AR117" s="57"/>
+      <c r="AS117" s="57"/>
+      <c r="AT117" s="57"/>
+      <c r="AU117" s="57"/>
+      <c r="AV117" s="57"/>
+      <c r="AW117" s="57"/>
+      <c r="AX117" s="57"/>
+      <c r="AY117" s="57"/>
+      <c r="AZ117" s="57"/>
+    </row>
+    <row r="118" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="U118" t="s">
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38"/>
+      <c r="P118" s="38"/>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="119" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="G119" s="21" t="s">
+      <c r="V118" s="38"/>
+      <c r="W118" s="38"/>
+      <c r="X118" s="38"/>
+      <c r="Y118" s="38"/>
+      <c r="Z118" s="38"/>
+      <c r="AA118" s="38"/>
+      <c r="AB118" s="38"/>
+      <c r="AC118" s="38"/>
+      <c r="AD118" s="57"/>
+      <c r="AE118" s="57"/>
+      <c r="AF118" s="57"/>
+      <c r="AG118" s="57"/>
+      <c r="AH118" s="57"/>
+      <c r="AI118" s="57"/>
+      <c r="AJ118" s="57"/>
+      <c r="AK118" s="57"/>
+      <c r="AL118" s="57"/>
+      <c r="AM118" s="57"/>
+      <c r="AN118" s="57"/>
+      <c r="AO118" s="57"/>
+      <c r="AP118" s="57"/>
+      <c r="AQ118" s="57"/>
+      <c r="AR118" s="57"/>
+      <c r="AS118" s="57"/>
+      <c r="AT118" s="57"/>
+      <c r="AU118" s="57"/>
+      <c r="AV118" s="57"/>
+      <c r="AW118" s="57"/>
+      <c r="AX118" s="57"/>
+      <c r="AY118" s="57"/>
+      <c r="AZ118" s="57"/>
+    </row>
+    <row r="119" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="U119" t="s">
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="38"/>
+      <c r="P119" s="38"/>
+      <c r="Q119" s="38"/>
+      <c r="R119" s="38"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="38" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="120" spans="5:59" x14ac:dyDescent="0.4">
-      <c r="U120" t="s">
+      <c r="V119" s="38"/>
+      <c r="W119" s="38"/>
+      <c r="X119" s="38"/>
+      <c r="Y119" s="38"/>
+      <c r="Z119" s="38"/>
+      <c r="AA119" s="38"/>
+      <c r="AB119" s="38"/>
+      <c r="AC119" s="38"/>
+      <c r="AD119" s="57"/>
+      <c r="AE119" s="57"/>
+      <c r="AF119" s="57"/>
+      <c r="AG119" s="57"/>
+      <c r="AH119" s="57"/>
+      <c r="AI119" s="57"/>
+      <c r="AJ119" s="57"/>
+      <c r="AK119" s="57"/>
+      <c r="AL119" s="57"/>
+      <c r="AM119" s="57"/>
+      <c r="AN119" s="57"/>
+      <c r="AO119" s="57"/>
+      <c r="AP119" s="57"/>
+      <c r="AQ119" s="57"/>
+      <c r="AR119" s="57"/>
+      <c r="AS119" s="57"/>
+      <c r="AT119" s="57"/>
+      <c r="AU119" s="57"/>
+      <c r="AV119" s="57"/>
+      <c r="AW119" s="57"/>
+      <c r="AX119" s="57"/>
+      <c r="AY119" s="57"/>
+      <c r="AZ119" s="57"/>
+    </row>
+    <row r="120" spans="1:59" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="38"/>
+      <c r="B120" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="38"/>
+      <c r="O120" s="38"/>
+      <c r="P120" s="38"/>
+      <c r="Q120" s="38"/>
+      <c r="R120" s="38"/>
+      <c r="S120" s="38"/>
+      <c r="T120" s="38"/>
+      <c r="U120" s="38" t="s">
         <v>184</v>
       </c>
+      <c r="V120" s="38"/>
+      <c r="W120" s="38"/>
+      <c r="X120" s="38"/>
+      <c r="Y120" s="38"/>
+      <c r="Z120" s="38"/>
+      <c r="AA120" s="38"/>
+      <c r="AB120" s="38"/>
+      <c r="AC120" s="38"/>
+      <c r="AD120" s="57"/>
+      <c r="AE120" s="57"/>
+      <c r="AF120" s="57"/>
+      <c r="AG120" s="57"/>
+      <c r="AH120" s="57"/>
+      <c r="AI120" s="57"/>
+      <c r="AJ120" s="57"/>
+      <c r="AK120" s="57"/>
+      <c r="AL120" s="57"/>
+      <c r="AM120" s="57"/>
+      <c r="AN120" s="57"/>
+      <c r="AO120" s="57"/>
+      <c r="AP120" s="57"/>
+      <c r="AQ120" s="57"/>
+      <c r="AR120" s="57"/>
+      <c r="AS120" s="57"/>
+      <c r="AT120" s="57"/>
+      <c r="AU120" s="57"/>
+      <c r="AV120" s="57"/>
+      <c r="AW120" s="57"/>
+      <c r="AX120" s="57"/>
+      <c r="AY120" s="57"/>
+      <c r="AZ120" s="57"/>
+    </row>
+    <row r="121" spans="1:59" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B121" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="70"/>
+      <c r="M121" s="70"/>
+    </row>
+    <row r="122" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A122" s="38">
+        <v>1</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="74"/>
+      <c r="M122" s="74"/>
+      <c r="O122" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="X122" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="O123" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="R123" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A124" s="38">
+        <v>3</v>
+      </c>
+      <c r="B124" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="O124" s="38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="O125" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="V125" s="38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A126" s="38">
+        <v>5</v>
+      </c>
+      <c r="B126" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="H126" s="74"/>
+      <c r="I126" s="74"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="74"/>
+      <c r="M126" s="74"/>
+      <c r="O126" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI126" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="74"/>
+      <c r="M127" s="74"/>
+      <c r="O127" s="38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="A128" s="79">
+        <v>7</v>
+      </c>
+      <c r="B128" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="80"/>
+      <c r="G128" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="H128" s="80"/>
+      <c r="I128" s="80"/>
+      <c r="J128" s="80"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="80"/>
+      <c r="M128" s="80"/>
+      <c r="O128" s="38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A129" s="76">
+        <v>8</v>
+      </c>
+      <c r="B129" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="72"/>
+      <c r="M129" s="72"/>
+      <c r="O129" s="38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A130" s="79">
+        <v>9</v>
+      </c>
+      <c r="B130" s="80" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="H130" s="80"/>
+      <c r="I130" s="80"/>
+      <c r="J130" s="80"/>
+      <c r="K130" s="80"/>
+      <c r="L130" s="80"/>
+      <c r="M130" s="80"/>
+      <c r="O130" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD130" s="38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A131" s="81">
+        <v>10</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>437</v>
+      </c>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="H131" s="80"/>
+      <c r="I131" s="80"/>
+      <c r="J131" s="80"/>
+      <c r="K131" s="80"/>
+      <c r="L131" s="80"/>
+      <c r="M131" s="80"/>
+      <c r="O131" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A132" s="79">
+        <v>11</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="80"/>
+      <c r="M132" s="80"/>
+      <c r="O132" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A133" s="76">
+        <v>12</v>
+      </c>
+      <c r="B133" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="72"/>
+      <c r="M133" s="72"/>
+      <c r="O133" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A134" s="38">
+        <v>13</v>
+      </c>
+      <c r="B134" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="74"/>
+      <c r="G134" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="74"/>
+      <c r="M134" s="74"/>
+      <c r="O134" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A135" s="76">
+        <v>14</v>
+      </c>
+      <c r="B135" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="72"/>
+      <c r="L135" s="72"/>
+      <c r="M135" s="72"/>
+      <c r="O135" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y135" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A136" s="83">
+        <v>15</v>
+      </c>
+      <c r="B136" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C136" s="84"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="84"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="H136" s="84"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="84"/>
+      <c r="L136" s="84"/>
+      <c r="M136" s="84"/>
+      <c r="O136" s="38" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A137" s="85">
+        <v>16</v>
+      </c>
+      <c r="B137" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="C137" s="84"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="84"/>
+      <c r="F137" s="84"/>
+      <c r="G137" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="H137" s="84"/>
+      <c r="I137" s="84"/>
+      <c r="J137" s="84"/>
+      <c r="K137" s="84"/>
+      <c r="L137" s="84"/>
+      <c r="M137" s="84"/>
+      <c r="O137" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB137" s="38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A138" s="77">
+        <v>17</v>
+      </c>
+      <c r="B138" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="72"/>
+      <c r="O138" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB138" s="38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A139" s="85">
+        <v>18</v>
+      </c>
+      <c r="B139" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="C139" s="84"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="84"/>
+      <c r="F139" s="84"/>
+      <c r="G139" s="84" t="s">
+        <v>454</v>
+      </c>
+      <c r="H139" s="84"/>
+      <c r="I139" s="84"/>
+      <c r="J139" s="84"/>
+      <c r="K139" s="84"/>
+      <c r="L139" s="84"/>
+      <c r="M139" s="84"/>
+      <c r="O139" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y139" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A140" s="77">
+        <v>19</v>
+      </c>
+      <c r="B140" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
+      <c r="O140" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB140" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A141" s="85">
+        <v>20</v>
+      </c>
+      <c r="B141" s="84" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" s="84"/>
+      <c r="D141" s="84"/>
+      <c r="E141" s="84"/>
+      <c r="F141" s="84"/>
+      <c r="G141" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="H141" s="84"/>
+      <c r="I141" s="84"/>
+      <c r="J141" s="84"/>
+      <c r="K141" s="84"/>
+      <c r="L141" s="84"/>
+      <c r="M141" s="84"/>
+      <c r="O141" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB141" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A142" s="83">
+        <v>21</v>
+      </c>
+      <c r="B142" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="C142" s="84"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="84"/>
+      <c r="F142" s="84"/>
+      <c r="G142" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="H142" s="84"/>
+      <c r="I142" s="84"/>
+      <c r="J142" s="84"/>
+      <c r="K142" s="84"/>
+      <c r="L142" s="84"/>
+      <c r="M142" s="84"/>
+      <c r="O142" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB142" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A143" s="85">
+        <v>22</v>
+      </c>
+      <c r="B143" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C143" s="84"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="H143" s="84"/>
+      <c r="I143" s="84"/>
+      <c r="J143" s="84"/>
+      <c r="K143" s="84"/>
+      <c r="L143" s="84"/>
+      <c r="M143" s="84"/>
+      <c r="O143" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB143" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A144" s="77">
+        <v>23</v>
+      </c>
+      <c r="B144" s="72" t="s">
+        <v>463</v>
+      </c>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="O144" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB144" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A145" s="76">
+        <v>24</v>
+      </c>
+      <c r="B145" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="O145" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB145" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A146" s="77">
+        <v>25</v>
+      </c>
+      <c r="B146" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
+      <c r="O146" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A147" s="76">
+        <v>26</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="72"/>
+      <c r="O147" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A148" s="77">
+        <v>27</v>
+      </c>
+      <c r="B148" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="O148" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>28</v>
+      </c>
+      <c r="B149" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="H149" s="74"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="74"/>
+      <c r="L149" s="74"/>
+      <c r="M149" s="74"/>
+      <c r="O149" s="38" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A150" s="38">
+        <v>29</v>
+      </c>
+      <c r="B150" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="74"/>
+      <c r="K150" s="74"/>
+      <c r="L150" s="74"/>
+      <c r="M150" s="74"/>
+      <c r="O150" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="74"/>
+      <c r="K151" s="74"/>
+      <c r="L151" s="74"/>
+      <c r="M151" s="74"/>
+      <c r="O151" s="38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A152" s="38">
+        <v>31</v>
+      </c>
+      <c r="B152" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="74"/>
+      <c r="L152" s="74"/>
+      <c r="M152" s="74"/>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>32</v>
+      </c>
+      <c r="B153" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="74"/>
+      <c r="G153" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="H153" s="74"/>
+      <c r="I153" s="74"/>
+      <c r="J153" s="74"/>
+      <c r="K153" s="74"/>
+      <c r="L153" s="74"/>
+      <c r="M153" s="74"/>
+      <c r="O153" s="38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A154" s="38">
+        <v>33</v>
+      </c>
+      <c r="B154" s="71" t="s">
+        <v>483</v>
+      </c>
+      <c r="C154" s="71"/>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="71"/>
+      <c r="M154" s="71"/>
+      <c r="O154" s="38" t="s">
+        <v>520</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+  <mergeCells count="174">
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:M151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:M152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:M153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="G154:M154"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:M148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:M149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:M150"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:M141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:M142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:M143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:M144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:M136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:M137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:M138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:M139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:M140"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:M132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:M133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:M135"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:M126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:M127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:M128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:M129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:M130"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:M121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="G122:M122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="G123:M123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -26724,56 +29047,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29135,6 +31444,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:AG135"/>
+    <mergeCell ref="AH135:AJ135"/>
+    <mergeCell ref="AK135:AO135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:AG136"/>
+    <mergeCell ref="AH136:AJ136"/>
+    <mergeCell ref="AK136:AO136"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -29145,36 +31484,6 @@
     <mergeCell ref="Q2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:AG135"/>
-    <mergeCell ref="AH135:AJ135"/>
-    <mergeCell ref="AK135:AO135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="F136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:AG136"/>
-    <mergeCell ref="AH136:AJ136"/>
-    <mergeCell ref="AK136:AO136"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE1AC7-097F-43CC-9B4E-3BE7D797069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398BCD-42BD-4AAA-AC1F-C72E7B93A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="0" windowWidth="25245" windowHeight="14310" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="556">
   <si>
     <t>No.</t>
   </si>
@@ -2040,12 +2040,39 @@
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>請求先</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>List画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>更新画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2139,6 +2166,15 @@
     <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2458,7 +2494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2652,29 +2688,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2685,26 +2712,38 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4221,6 +4260,155 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="720090"/>
+          <a:ext cx="485775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="691515"/>
+          <a:ext cx="485775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5453,7 +5641,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8211,7 +8399,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10216,7 +10404,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10289,7 +10477,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10551,7 +10739,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12496,6 +12684,200 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>234460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868616BC-C8C8-B365-D0BE-5E5EA85DE452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5077557" y="4909037"/>
+          <a:ext cx="527539" cy="256443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>271097</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>197824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>212479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8223B7-568A-4767-211C-E63C65DB92F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8638443" y="5839555"/>
+          <a:ext cx="527539" cy="256443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947F4E37-DFDD-718D-83D2-1D8BCA270EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3941884" y="4359517"/>
+          <a:ext cx="674077" cy="263771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14689,7 +15071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16450,7 +16832,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18898,7 +19280,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19362,7 +19744,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20019,155 +20401,6 @@
             </a:rPr>
             <a:t>１２３４５</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="720090"/>
-          <a:ext cx="485775" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8477250" y="691515"/>
-          <a:ext cx="485775" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21670,20 +21903,20 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
       <c r="AC2" s="66" t="s">
         <v>42</v>
       </c>
@@ -21730,24 +21963,24 @@
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="82" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="82" t="s">
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="70"/>
       <c r="X5" s="10" t="s">
         <v>350</v>
       </c>
@@ -21775,36 +22008,36 @@
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="71" t="s">
         <v>306</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="75">
+      <c r="L6" s="72">
         <v>180</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="75" t="s">
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="75">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="72">
         <v>7777</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="81" t="s">
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
       <c r="AB6" s="10" t="s">
         <v>354</v>
       </c>
@@ -21826,36 +22059,36 @@
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="71" t="s">
         <v>306</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
-      <c r="L7" s="75">
+      <c r="L7" s="72">
         <v>200</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="75" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="72">
         <v>1234</v>
       </c>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="75">
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="72">
         <v>2345</v>
       </c>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="77"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
       <c r="AB7" s="10" t="s">
         <v>354</v>
       </c>
@@ -21877,36 +22110,36 @@
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="75">
+      <c r="L8" s="72">
         <v>210</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="75" t="s">
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="75">
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="72">
         <v>3456</v>
       </c>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="75">
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="72">
         <v>234</v>
       </c>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="77"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
       <c r="AB8" s="10" t="s">
         <v>354</v>
       </c>
@@ -21924,26 +22157,26 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="77"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -21959,26 +22192,26 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="77"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -21994,26 +22227,26 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="77"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="74"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -22029,26 +22262,26 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="77"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -22064,26 +22297,26 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="77"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -22099,26 +22332,26 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="77"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -22322,36 +22555,41 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="B9:D9"/>
@@ -22366,41 +22604,36 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23934,20 +24167,20 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
       <c r="AC2" s="66" t="s">
         <v>42</v>
       </c>
@@ -23989,22 +24222,22 @@
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="82" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="70"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -24032,35 +24265,35 @@
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
-      <c r="H6" s="78"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="77"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="74"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -24071,35 +24304,35 @@
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
-      <c r="H7" s="78"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="77"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -24110,35 +24343,35 @@
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="77"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="74"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -24149,35 +24382,35 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="77"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="74"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -24188,35 +24421,35 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="77"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="74"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -24227,35 +24460,35 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="77"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="74"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -24266,35 +24499,35 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="77"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="74"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -24305,35 +24538,35 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="77"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="74"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -24344,35 +24577,35 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="77"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="74"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -24555,42 +24788,56 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -24611,56 +24858,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25504,16 +25737,66 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -25526,66 +25809,16 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26671,10 +26904,10 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26759,20 +26992,20 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
       <c r="AC2" s="66" t="s">
         <v>42</v>
       </c>
@@ -26792,12 +27025,13 @@
       <c r="AK3" s="7"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="85" t="s">
         <v>522</v>
       </c>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
@@ -26917,9 +27151,56 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B18" s="38" t="s">
         <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B19" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="C20" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="12"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -26938,6 +27219,7 @@
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27034,20 +27316,20 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
       <c r="AC2" s="66" t="s">
         <v>42</v>
       </c>
@@ -27094,24 +27376,24 @@
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="82" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="82" t="s">
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="70"/>
       <c r="X5" s="10" t="s">
         <v>91</v>
       </c>
@@ -27147,51 +27429,51 @@
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="71" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="75">
+      <c r="L6" s="72">
         <v>255555</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="75">
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72">
         <v>6666</v>
       </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="75">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="72">
         <v>7777</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="81" t="s">
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="81" t="s">
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="81" t="s">
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="81" t="s">
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="77"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="74"/>
       <c r="AK6" s="7" t="s">
         <v>100</v>
       </c>
@@ -27208,35 +27490,35 @@
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
-      <c r="H7" s="78"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="77"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
@@ -27247,35 +27529,35 @@
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="77"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="74"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -27286,35 +27568,35 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="77"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="74"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
@@ -27325,35 +27607,35 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="77"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="74"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -27364,35 +27646,35 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="77"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="74"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -27403,35 +27685,35 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="77"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="74"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -27442,35 +27724,35 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="77"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="74"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -27481,35 +27763,35 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="77"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="74"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -29026,43 +29308,43 @@
       <c r="A121" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B121" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73" t="s">
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
-      <c r="K121" s="73"/>
-      <c r="L121" s="73"/>
-      <c r="M121" s="73"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="77"/>
     </row>
     <row r="122" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A122" s="38">
         <v>1</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="78" t="s">
         <v>423</v>
       </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67" t="s">
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
-      <c r="L122" s="67"/>
-      <c r="M122" s="67"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="78"/>
       <c r="O122" s="38" t="s">
         <v>486</v>
       </c>
@@ -29074,22 +29356,22 @@
       <c r="A123">
         <v>2</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67" t="s">
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78" t="s">
         <v>346</v>
       </c>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="67"/>
-      <c r="L123" s="67"/>
-      <c r="M123" s="67"/>
+      <c r="H123" s="78"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="78"/>
+      <c r="K123" s="78"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="78"/>
       <c r="O123" s="38" t="s">
         <v>487</v>
       </c>
@@ -29101,22 +29383,22 @@
       <c r="A124" s="38">
         <v>3</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67" t="s">
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78" t="s">
         <v>426</v>
       </c>
-      <c r="H124" s="67"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="67"/>
-      <c r="L124" s="67"/>
-      <c r="M124" s="67"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="78"/>
       <c r="O124" s="38" t="s">
         <v>489</v>
       </c>
@@ -29125,22 +29407,22 @@
       <c r="A125">
         <v>4</v>
       </c>
-      <c r="B125" s="67" t="s">
+      <c r="B125" s="78" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="74" t="s">
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="79" t="s">
         <v>517</v>
       </c>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
-      <c r="L125" s="67"/>
-      <c r="M125" s="67"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
       <c r="O125" s="38" t="s">
         <v>490</v>
       </c>
@@ -29152,22 +29434,22 @@
       <c r="A126" s="38">
         <v>5</v>
       </c>
-      <c r="B126" s="67" t="s">
+      <c r="B126" s="78" t="s">
         <v>428</v>
       </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67" t="s">
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="67"/>
-      <c r="L126" s="67"/>
-      <c r="M126" s="67"/>
+      <c r="H126" s="78"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
+      <c r="L126" s="78"/>
+      <c r="M126" s="78"/>
       <c r="O126" s="52" t="s">
         <v>493</v>
       </c>
@@ -29179,22 +29461,22 @@
       <c r="A127">
         <v>6</v>
       </c>
-      <c r="B127" s="67" t="s">
+      <c r="B127" s="78" t="s">
         <v>430</v>
       </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67" t="s">
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78" t="s">
         <v>431</v>
       </c>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
-      <c r="L127" s="67"/>
-      <c r="M127" s="67"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="78"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="78"/>
       <c r="O127" s="38" t="s">
         <v>494</v>
       </c>
@@ -29203,22 +29485,22 @@
       <c r="A128" s="55">
         <v>7</v>
       </c>
-      <c r="B128" s="72" t="s">
+      <c r="B128" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72" t="s">
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="80"/>
+      <c r="G128" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
+      <c r="H128" s="80"/>
+      <c r="I128" s="80"/>
+      <c r="J128" s="80"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="80"/>
+      <c r="M128" s="80"/>
       <c r="O128" s="38" t="s">
         <v>496</v>
       </c>
@@ -29227,22 +29509,22 @@
       <c r="A129" s="53">
         <v>8</v>
       </c>
-      <c r="B129" s="68" t="s">
+      <c r="B129" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68" t="s">
+      <c r="C129" s="81"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="81"/>
+      <c r="F129" s="81"/>
+      <c r="G129" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="H129" s="68"/>
-      <c r="I129" s="68"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="68"/>
-      <c r="L129" s="68"/>
-      <c r="M129" s="68"/>
+      <c r="H129" s="81"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="81"/>
+      <c r="L129" s="81"/>
+      <c r="M129" s="81"/>
       <c r="O129" s="38" t="s">
         <v>497</v>
       </c>
@@ -29251,22 +29533,22 @@
       <c r="A130" s="55">
         <v>9</v>
       </c>
-      <c r="B130" s="72" t="s">
+      <c r="B130" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="C130" s="72"/>
-      <c r="D130" s="72"/>
-      <c r="E130" s="72"/>
-      <c r="F130" s="72"/>
-      <c r="G130" s="72" t="s">
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="72"/>
-      <c r="M130" s="72"/>
+      <c r="H130" s="80"/>
+      <c r="I130" s="80"/>
+      <c r="J130" s="80"/>
+      <c r="K130" s="80"/>
+      <c r="L130" s="80"/>
+      <c r="M130" s="80"/>
       <c r="O130" s="38" t="s">
         <v>498</v>
       </c>
@@ -29278,22 +29560,22 @@
       <c r="A131" s="56">
         <v>10</v>
       </c>
-      <c r="B131" s="71" t="s">
+      <c r="B131" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="71" t="s">
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="72"/>
-      <c r="M131" s="72"/>
+      <c r="H131" s="80"/>
+      <c r="I131" s="80"/>
+      <c r="J131" s="80"/>
+      <c r="K131" s="80"/>
+      <c r="L131" s="80"/>
+      <c r="M131" s="80"/>
       <c r="O131" s="38">
         <v>0</v>
       </c>
@@ -29302,22 +29584,22 @@
       <c r="A132" s="55">
         <v>11</v>
       </c>
-      <c r="B132" s="72" t="s">
+      <c r="B132" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72" t="s">
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="72"/>
-      <c r="M132" s="72"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="80"/>
+      <c r="M132" s="80"/>
       <c r="O132" s="38">
         <v>0</v>
       </c>
@@ -29326,22 +29608,22 @@
       <c r="A133" s="53">
         <v>12</v>
       </c>
-      <c r="B133" s="68" t="s">
+      <c r="B133" s="81" t="s">
         <v>441</v>
       </c>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68" t="s">
+      <c r="C133" s="81"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="H133" s="68"/>
-      <c r="I133" s="68"/>
-      <c r="J133" s="68"/>
-      <c r="K133" s="68"/>
-      <c r="L133" s="68"/>
-      <c r="M133" s="68"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="81"/>
+      <c r="L133" s="81"/>
+      <c r="M133" s="81"/>
       <c r="O133" s="38">
         <v>0</v>
       </c>
@@ -29350,22 +29632,22 @@
       <c r="A134" s="38">
         <v>13</v>
       </c>
-      <c r="B134" s="67" t="s">
+      <c r="B134" s="78" t="s">
         <v>443</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67" t="s">
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="H134" s="67"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="67"/>
-      <c r="K134" s="67"/>
-      <c r="L134" s="67"/>
-      <c r="M134" s="67"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="78"/>
+      <c r="L134" s="78"/>
+      <c r="M134" s="78"/>
       <c r="O134" s="38">
         <v>0</v>
       </c>
@@ -29374,22 +29656,22 @@
       <c r="A135" s="53">
         <v>14</v>
       </c>
-      <c r="B135" s="68" t="s">
+      <c r="B135" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="68" t="s">
+      <c r="C135" s="81"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="H135" s="68"/>
-      <c r="I135" s="68"/>
-      <c r="J135" s="68"/>
-      <c r="K135" s="68"/>
-      <c r="L135" s="68"/>
-      <c r="M135" s="68"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="81"/>
+      <c r="L135" s="81"/>
+      <c r="M135" s="81"/>
       <c r="O135" s="38" t="s">
         <v>502</v>
       </c>
@@ -29401,22 +29683,22 @@
       <c r="A136" s="57">
         <v>15</v>
       </c>
-      <c r="B136" s="70" t="s">
+      <c r="B136" s="83" t="s">
         <v>447</v>
       </c>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="70" t="s">
+      <c r="C136" s="83"/>
+      <c r="D136" s="83"/>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="H136" s="70"/>
-      <c r="I136" s="70"/>
-      <c r="J136" s="70"/>
-      <c r="K136" s="70"/>
-      <c r="L136" s="70"/>
-      <c r="M136" s="70"/>
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="83"/>
+      <c r="L136" s="83"/>
+      <c r="M136" s="83"/>
       <c r="O136" s="38" t="s">
         <v>502</v>
       </c>
@@ -29425,22 +29707,22 @@
       <c r="A137" s="58">
         <v>16</v>
       </c>
-      <c r="B137" s="70" t="s">
+      <c r="B137" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70" t="s">
+      <c r="C137" s="83"/>
+      <c r="D137" s="83"/>
+      <c r="E137" s="83"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="83" t="s">
         <v>450</v>
       </c>
-      <c r="H137" s="70"/>
-      <c r="I137" s="70"/>
-      <c r="J137" s="70"/>
-      <c r="K137" s="70"/>
-      <c r="L137" s="70"/>
-      <c r="M137" s="70"/>
+      <c r="H137" s="83"/>
+      <c r="I137" s="83"/>
+      <c r="J137" s="83"/>
+      <c r="K137" s="83"/>
+      <c r="L137" s="83"/>
+      <c r="M137" s="83"/>
       <c r="O137" s="38" t="s">
         <v>504</v>
       </c>
@@ -29452,22 +29734,22 @@
       <c r="A138" s="54">
         <v>17</v>
       </c>
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="C138" s="68"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="68" t="s">
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="81"/>
+      <c r="G138" s="81" t="s">
         <v>452</v>
       </c>
-      <c r="H138" s="68"/>
-      <c r="I138" s="68"/>
-      <c r="J138" s="68"/>
-      <c r="K138" s="68"/>
-      <c r="L138" s="68"/>
-      <c r="M138" s="68"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="81"/>
+      <c r="K138" s="81"/>
+      <c r="L138" s="81"/>
+      <c r="M138" s="81"/>
       <c r="O138" s="38" t="s">
         <v>504</v>
       </c>
@@ -29479,22 +29761,22 @@
       <c r="A139" s="58">
         <v>18</v>
       </c>
-      <c r="B139" s="70" t="s">
+      <c r="B139" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70" t="s">
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="H139" s="70"/>
-      <c r="I139" s="70"/>
-      <c r="J139" s="70"/>
-      <c r="K139" s="70"/>
-      <c r="L139" s="70"/>
-      <c r="M139" s="70"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="83"/>
+      <c r="J139" s="83"/>
+      <c r="K139" s="83"/>
+      <c r="L139" s="83"/>
+      <c r="M139" s="83"/>
       <c r="O139" s="38" t="s">
         <v>507</v>
       </c>
@@ -29506,22 +29788,22 @@
       <c r="A140" s="54">
         <v>19</v>
       </c>
-      <c r="B140" s="68" t="s">
+      <c r="B140" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="C140" s="68"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="68" t="s">
+      <c r="C140" s="81"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81" t="s">
         <v>456</v>
       </c>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
-      <c r="J140" s="68"/>
-      <c r="K140" s="68"/>
-      <c r="L140" s="68"/>
-      <c r="M140" s="68"/>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="81"/>
+      <c r="L140" s="81"/>
+      <c r="M140" s="81"/>
       <c r="O140" s="38" t="s">
         <v>509</v>
       </c>
@@ -29533,22 +29815,22 @@
       <c r="A141" s="58">
         <v>20</v>
       </c>
-      <c r="B141" s="70" t="s">
+      <c r="B141" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70" t="s">
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
+      <c r="H141" s="83"/>
+      <c r="I141" s="83"/>
+      <c r="J141" s="83"/>
+      <c r="K141" s="83"/>
+      <c r="L141" s="83"/>
+      <c r="M141" s="83"/>
       <c r="O141" s="38" t="s">
         <v>510</v>
       </c>
@@ -29560,22 +29842,22 @@
       <c r="A142" s="57">
         <v>21</v>
       </c>
-      <c r="B142" s="70" t="s">
+      <c r="B142" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="70" t="s">
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="H142" s="70"/>
-      <c r="I142" s="70"/>
-      <c r="J142" s="70"/>
-      <c r="K142" s="70"/>
-      <c r="L142" s="70"/>
-      <c r="M142" s="70"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="83"/>
+      <c r="J142" s="83"/>
+      <c r="K142" s="83"/>
+      <c r="L142" s="83"/>
+      <c r="M142" s="83"/>
       <c r="O142" s="38" t="s">
         <v>511</v>
       </c>
@@ -29587,22 +29869,22 @@
       <c r="A143" s="58">
         <v>22</v>
       </c>
-      <c r="B143" s="70" t="s">
+      <c r="B143" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="70"/>
-      <c r="G143" s="70" t="s">
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83" t="s">
         <v>462</v>
       </c>
-      <c r="H143" s="70"/>
-      <c r="I143" s="70"/>
-      <c r="J143" s="70"/>
-      <c r="K143" s="70"/>
-      <c r="L143" s="70"/>
-      <c r="M143" s="70"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
+      <c r="K143" s="83"/>
+      <c r="L143" s="83"/>
+      <c r="M143" s="83"/>
       <c r="O143" s="38" t="s">
         <v>512</v>
       </c>
@@ -29614,22 +29896,22 @@
       <c r="A144" s="54">
         <v>23</v>
       </c>
-      <c r="B144" s="68" t="s">
+      <c r="B144" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68" t="s">
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="68"/>
-      <c r="M144" s="68"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="81"/>
+      <c r="L144" s="81"/>
+      <c r="M144" s="81"/>
       <c r="O144" s="38" t="s">
         <v>513</v>
       </c>
@@ -29641,22 +29923,22 @@
       <c r="A145" s="53">
         <v>24</v>
       </c>
-      <c r="B145" s="68" t="s">
+      <c r="B145" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="68" t="s">
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="H145" s="68"/>
-      <c r="I145" s="68"/>
-      <c r="J145" s="68"/>
-      <c r="K145" s="68"/>
-      <c r="L145" s="68"/>
-      <c r="M145" s="68"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
       <c r="O145" s="38" t="s">
         <v>515</v>
       </c>
@@ -29668,22 +29950,22 @@
       <c r="A146" s="54">
         <v>25</v>
       </c>
-      <c r="B146" s="68" t="s">
+      <c r="B146" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="C146" s="68"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="68" t="s">
+      <c r="C146" s="81"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="H146" s="68"/>
-      <c r="I146" s="68"/>
-      <c r="J146" s="68"/>
-      <c r="K146" s="68"/>
-      <c r="L146" s="68"/>
-      <c r="M146" s="68"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+      <c r="K146" s="81"/>
+      <c r="L146" s="81"/>
+      <c r="M146" s="81"/>
       <c r="O146" s="38">
         <v>0</v>
       </c>
@@ -29692,22 +29974,22 @@
       <c r="A147" s="53">
         <v>26</v>
       </c>
-      <c r="B147" s="68" t="s">
+      <c r="B147" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="68" t="s">
+      <c r="C147" s="81"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="H147" s="68"/>
-      <c r="I147" s="68"/>
-      <c r="J147" s="68"/>
-      <c r="K147" s="68"/>
-      <c r="L147" s="68"/>
-      <c r="M147" s="68"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81"/>
+      <c r="K147" s="81"/>
+      <c r="L147" s="81"/>
+      <c r="M147" s="81"/>
       <c r="O147" s="38">
         <v>0</v>
       </c>
@@ -29716,22 +29998,22 @@
       <c r="A148" s="54">
         <v>27</v>
       </c>
-      <c r="B148" s="69" t="s">
+      <c r="B148" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="C148" s="68"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="69" t="s">
+      <c r="C148" s="81"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="H148" s="68"/>
-      <c r="I148" s="68"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="68"/>
-      <c r="L148" s="68"/>
-      <c r="M148" s="68"/>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81"/>
+      <c r="K148" s="81"/>
+      <c r="L148" s="81"/>
+      <c r="M148" s="81"/>
       <c r="O148" s="38">
         <v>0</v>
       </c>
@@ -29740,22 +30022,22 @@
       <c r="A149">
         <v>28</v>
       </c>
-      <c r="B149" s="67" t="s">
+      <c r="B149" s="78" t="s">
         <v>473</v>
       </c>
-      <c r="C149" s="67"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="67" t="s">
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="78" t="s">
         <v>474</v>
       </c>
-      <c r="H149" s="67"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="67"/>
-      <c r="K149" s="67"/>
-      <c r="L149" s="67"/>
-      <c r="M149" s="67"/>
+      <c r="H149" s="78"/>
+      <c r="I149" s="78"/>
+      <c r="J149" s="78"/>
+      <c r="K149" s="78"/>
+      <c r="L149" s="78"/>
+      <c r="M149" s="78"/>
       <c r="O149" s="38" t="s">
         <v>518</v>
       </c>
@@ -29764,22 +30046,22 @@
       <c r="A150" s="38">
         <v>29</v>
       </c>
-      <c r="B150" s="67" t="s">
+      <c r="B150" s="78" t="s">
         <v>475</v>
       </c>
-      <c r="C150" s="67"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="67" t="s">
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78" t="s">
         <v>476</v>
       </c>
-      <c r="H150" s="67"/>
-      <c r="I150" s="67"/>
-      <c r="J150" s="67"/>
-      <c r="K150" s="67"/>
-      <c r="L150" s="67"/>
-      <c r="M150" s="67"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="78"/>
+      <c r="J150" s="78"/>
+      <c r="K150" s="78"/>
+      <c r="L150" s="78"/>
+      <c r="M150" s="78"/>
       <c r="O150" s="38" t="s">
         <v>519</v>
       </c>
@@ -29788,22 +30070,22 @@
       <c r="A151">
         <v>30</v>
       </c>
-      <c r="B151" s="67" t="s">
+      <c r="B151" s="78" t="s">
         <v>477</v>
       </c>
-      <c r="C151" s="67"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="67" t="s">
+      <c r="C151" s="78"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="H151" s="67"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="67"/>
-      <c r="K151" s="67"/>
-      <c r="L151" s="67"/>
-      <c r="M151" s="67"/>
+      <c r="H151" s="78"/>
+      <c r="I151" s="78"/>
+      <c r="J151" s="78"/>
+      <c r="K151" s="78"/>
+      <c r="L151" s="78"/>
+      <c r="M151" s="78"/>
       <c r="O151" s="38" t="s">
         <v>501</v>
       </c>
@@ -29812,22 +30094,22 @@
       <c r="A152" s="38">
         <v>31</v>
       </c>
-      <c r="B152" s="67" t="s">
+      <c r="B152" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="67" t="s">
+      <c r="C152" s="78"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="H152" s="67"/>
-      <c r="I152" s="67"/>
-      <c r="J152" s="67"/>
-      <c r="K152" s="67"/>
-      <c r="L152" s="67"/>
-      <c r="M152" s="67"/>
+      <c r="H152" s="78"/>
+      <c r="I152" s="78"/>
+      <c r="J152" s="78"/>
+      <c r="K152" s="78"/>
+      <c r="L152" s="78"/>
+      <c r="M152" s="78"/>
       <c r="O152">
         <v>0</v>
       </c>
@@ -29836,22 +30118,22 @@
       <c r="A153">
         <v>32</v>
       </c>
-      <c r="B153" s="67" t="s">
+      <c r="B153" s="78" t="s">
         <v>481</v>
       </c>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="67" t="s">
+      <c r="C153" s="78"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="78"/>
+      <c r="G153" s="78" t="s">
         <v>482</v>
       </c>
-      <c r="H153" s="67"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="67"/>
-      <c r="K153" s="67"/>
-      <c r="L153" s="67"/>
-      <c r="M153" s="67"/>
+      <c r="H153" s="78"/>
+      <c r="I153" s="78"/>
+      <c r="J153" s="78"/>
+      <c r="K153" s="78"/>
+      <c r="L153" s="78"/>
+      <c r="M153" s="78"/>
       <c r="O153" s="38" t="s">
         <v>520</v>
       </c>
@@ -29860,64 +30142,146 @@
       <c r="A154" s="38">
         <v>33</v>
       </c>
-      <c r="B154" s="67" t="s">
+      <c r="B154" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67" t="s">
+      <c r="C154" s="78"/>
+      <c r="D154" s="78"/>
+      <c r="E154" s="78"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="78" t="s">
         <v>484</v>
       </c>
-      <c r="H154" s="67"/>
-      <c r="I154" s="67"/>
-      <c r="J154" s="67"/>
-      <c r="K154" s="67"/>
-      <c r="L154" s="67"/>
-      <c r="M154" s="67"/>
+      <c r="H154" s="78"/>
+      <c r="I154" s="78"/>
+      <c r="J154" s="78"/>
+      <c r="K154" s="78"/>
+      <c r="L154" s="78"/>
+      <c r="M154" s="78"/>
       <c r="O154" s="38" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:M151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:M152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:M153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="G154:M154"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:M148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:M149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:M150"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:M141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:M142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:M143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:M144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:M136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:M137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:M138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:M139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:M140"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:M132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:M133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:M135"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:M126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:M127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:M128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:M129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:M130"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:M121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="G122:M122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="G123:M123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
@@ -29938,124 +30302,42 @@
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:M121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="G122:M122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="G123:M123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:M126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:M127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:M128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:M129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:M130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:M132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:M133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:M134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:M135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:M136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:M137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:M138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:M139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:M140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:M141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:M142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:M143"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:M144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:M145"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:M151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:M152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:M153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="G154:M154"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:M146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:M147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:M148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:M149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:M150"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32417,6 +32699,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:AG135"/>
+    <mergeCell ref="AH135:AJ135"/>
+    <mergeCell ref="AK135:AO135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:AG136"/>
+    <mergeCell ref="AH136:AJ136"/>
+    <mergeCell ref="AK136:AO136"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -32427,36 +32739,6 @@
     <mergeCell ref="Q2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:AG135"/>
-    <mergeCell ref="AH135:AJ135"/>
-    <mergeCell ref="AK135:AO135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="F136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:AG136"/>
-    <mergeCell ref="AH136:AJ136"/>
-    <mergeCell ref="AK136:AO136"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム_EMSM.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398BCD-42BD-4AAA-AC1F-C72E7B93A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0947E60-D0AE-4F61-97AA-795069D9A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="915" windowWidth="25245" windowHeight="14310" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <sheet name="社員リスト" sheetId="6" r:id="rId18"/>
     <sheet name="月度処理" sheetId="3" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="559">
   <si>
     <t>No.</t>
   </si>
@@ -2064,6 +2064,39 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>新案</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>１）請求先会社名：</t>
+    <rPh sb="2" eb="5">
+      <t>セイキュウサキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>２）から請求書リストと同じ</t>
+    <rPh sb="4" eb="7">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -2664,6 +2697,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2691,17 +2727,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2712,38 +2760,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12689,13 +12722,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>234460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>7326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12752,13 +12785,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>271097</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>197824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>241790</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>212479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12815,13 +12848,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>36634</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168517</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>227135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12837,8 +12870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3941884" y="4359517"/>
-          <a:ext cx="674077" cy="263771"/>
+          <a:off x="3941884" y="5143500"/>
+          <a:ext cx="674077" cy="446942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20876,94 +20909,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21328,92 +21361,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21834,102 +21867,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="66" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21947,40 +21980,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="68" t="s">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="70"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
       <c r="X5" s="10" t="s">
         <v>350</v>
       </c>
@@ -21998,46 +22031,46 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="71" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="72">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="77">
         <v>180</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72" t="s">
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="72">
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="77">
         <v>7777</v>
       </c>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75" t="s">
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="79"/>
       <c r="AB6" s="10" t="s">
         <v>354</v>
       </c>
@@ -22049,46 +22082,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="71" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="72">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="77">
         <v>200</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72" t="s">
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="72">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="77">
         <v>1234</v>
       </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="72">
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="77">
         <v>2345</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
       <c r="AB7" s="10" t="s">
         <v>354</v>
       </c>
@@ -22100,46 +22133,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="71" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="72">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="77">
         <v>210</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72" t="s">
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="72">
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="77">
         <v>3456</v>
       </c>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="72">
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="77">
         <v>234</v>
       </c>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="74"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="79"/>
       <c r="AB8" s="10" t="s">
         <v>354</v>
       </c>
@@ -22151,32 +22184,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="74"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -22186,32 +22219,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -22221,32 +22254,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="79"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -22256,32 +22289,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -22291,32 +22324,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="79"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -22326,32 +22359,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -22555,13 +22588,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="B13:D13"/>
@@ -22576,64 +22660,13 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22656,92 +22689,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22968,108 +23001,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -23312,108 +23345,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -23662,94 +23695,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24098,100 +24131,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="66" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24206,38 +24239,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="70"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -24255,357 +24288,357 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="74"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="79"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="74"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="79"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="74"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="79"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="79"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="74"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="79"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="74"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="79"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="79"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="74"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="79"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="79"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -24788,16 +24821,82 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -24818,82 +24917,16 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24919,92 +24952,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25029,402 +25062,402 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62" t="s">
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
@@ -25737,6 +25770,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="X13:AC13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
     <mergeCell ref="X16:AC16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
@@ -25749,76 +25852,6 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="X13:AC13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25858,17 +25891,17 @@
       <c r="C32" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
       <c r="M32" s="28" t="s">
         <v>11</v>
       </c>
@@ -25880,17 +25913,17 @@
       <c r="C33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="29" t="s">
         <v>14</v>
       </c>
@@ -25902,17 +25935,17 @@
       <c r="C34" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -25922,17 +25955,17 @@
       <c r="C35" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -25942,17 +25975,17 @@
       <c r="C36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="30"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
@@ -25962,17 +25995,17 @@
       <c r="C37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
       <c r="M37" s="30" t="s">
         <v>22</v>
       </c>
@@ -26080,92 +26113,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26537,92 +26570,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26904,16 +26937,19 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="26" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="26" width="3.625" customWidth="1"/>
     <col min="27" max="27" width="3.75" customWidth="1"/>
     <col min="28" max="32" width="3.625" customWidth="1"/>
     <col min="33" max="33" width="4.25" customWidth="1"/>
@@ -26923,115 +26959,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="66" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="AK3" s="7"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
@@ -27151,55 +27187,107 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A17" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B18" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B19" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="Q22" s="38"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B23" s="38" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B19" s="38" t="s">
+      <c r="P23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="50"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B25" s="38"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B26" s="38"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B28" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="Y19" s="38" t="s">
+      <c r="Y28" s="38" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="C20" s="38" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C29" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F29" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J29" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="Y20" s="38" t="s">
+      <c r="Y29" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="12"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B21">
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="Y21" s="38" t="s">
+      <c r="Y30" s="38" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B22">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="Y22" s="38" t="s">
+      <c r="Y31" s="38" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B23">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B32">
         <v>3</v>
       </c>
     </row>
@@ -27247,102 +27335,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="64" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="66" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -27360,40 +27448,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="68" t="s">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="70"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
       <c r="X5" s="10" t="s">
         <v>91</v>
       </c>
@@ -27419,379 +27507,379 @@
     </row>
     <row r="6" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="71" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="72">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="77">
         <v>255555</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72">
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="77">
         <v>6666</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="72">
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="77">
         <v>7777</v>
       </c>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75" t="s">
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="75" t="s">
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="75" t="s">
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="75" t="s">
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="74"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="79"/>
       <c r="AK6" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="74"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="79"/>
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="74"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="79"/>
       <c r="AK8" s="7"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="79"/>
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="74"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="79"/>
       <c r="AK10" s="7"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="74"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="79"/>
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="79"/>
       <c r="AK12" s="7"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="74"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="79"/>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="79"/>
       <c r="AK14" s="7"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -29308,43 +29396,43 @@
       <c r="A121" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="75" t="s">
         <v>421</v>
       </c>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77" t="s">
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="H121" s="77"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
-      <c r="M121" s="77"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="75"/>
     </row>
     <row r="122" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A122" s="38">
         <v>1</v>
       </c>
-      <c r="B122" s="78" t="s">
+      <c r="B122" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="C122" s="78"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78" t="s">
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="H122" s="78"/>
-      <c r="I122" s="78"/>
-      <c r="J122" s="78"/>
-      <c r="K122" s="78"/>
-      <c r="L122" s="78"/>
-      <c r="M122" s="78"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="69"/>
+      <c r="M122" s="69"/>
       <c r="O122" s="38" t="s">
         <v>486</v>
       </c>
@@ -29356,22 +29444,22 @@
       <c r="A123">
         <v>2</v>
       </c>
-      <c r="B123" s="78" t="s">
+      <c r="B123" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78" t="s">
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="H123" s="78"/>
-      <c r="I123" s="78"/>
-      <c r="J123" s="78"/>
-      <c r="K123" s="78"/>
-      <c r="L123" s="78"/>
-      <c r="M123" s="78"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="69"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="69"/>
+      <c r="M123" s="69"/>
       <c r="O123" s="38" t="s">
         <v>487</v>
       </c>
@@ -29383,22 +29471,22 @@
       <c r="A124" s="38">
         <v>3</v>
       </c>
-      <c r="B124" s="78" t="s">
+      <c r="B124" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="C124" s="78"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="78" t="s">
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H124" s="78"/>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
-      <c r="K124" s="78"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="78"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
       <c r="O124" s="38" t="s">
         <v>489</v>
       </c>
@@ -29407,22 +29495,22 @@
       <c r="A125">
         <v>4</v>
       </c>
-      <c r="B125" s="78" t="s">
+      <c r="B125" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="79" t="s">
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="76" t="s">
         <v>517</v>
       </c>
-      <c r="H125" s="78"/>
-      <c r="I125" s="78"/>
-      <c r="J125" s="78"/>
-      <c r="K125" s="78"/>
-      <c r="L125" s="78"/>
-      <c r="M125" s="78"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="69"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="69"/>
+      <c r="M125" s="69"/>
       <c r="O125" s="38" t="s">
         <v>490</v>
       </c>
@@ -29434,22 +29522,22 @@
       <c r="A126" s="38">
         <v>5</v>
       </c>
-      <c r="B126" s="78" t="s">
+      <c r="B126" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="C126" s="78"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78" t="s">
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69" t="s">
         <v>429</v>
       </c>
-      <c r="H126" s="78"/>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="78"/>
-      <c r="M126" s="78"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
+      <c r="M126" s="69"/>
       <c r="O126" s="52" t="s">
         <v>493</v>
       </c>
@@ -29461,22 +29549,22 @@
       <c r="A127">
         <v>6</v>
       </c>
-      <c r="B127" s="78" t="s">
+      <c r="B127" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78" t="s">
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="69" t="s">
         <v>431</v>
       </c>
-      <c r="H127" s="78"/>
-      <c r="I127" s="78"/>
-      <c r="J127" s="78"/>
-      <c r="K127" s="78"/>
-      <c r="L127" s="78"/>
-      <c r="M127" s="78"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="69"/>
+      <c r="J127" s="69"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="69"/>
+      <c r="M127" s="69"/>
       <c r="O127" s="38" t="s">
         <v>494</v>
       </c>
@@ -29485,22 +29573,22 @@
       <c r="A128" s="55">
         <v>7</v>
       </c>
-      <c r="B128" s="80" t="s">
+      <c r="B128" s="74" t="s">
         <v>432</v>
       </c>
-      <c r="C128" s="80"/>
-      <c r="D128" s="80"/>
-      <c r="E128" s="80"/>
-      <c r="F128" s="80"/>
-      <c r="G128" s="80" t="s">
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="H128" s="80"/>
-      <c r="I128" s="80"/>
-      <c r="J128" s="80"/>
-      <c r="K128" s="80"/>
-      <c r="L128" s="80"/>
-      <c r="M128" s="80"/>
+      <c r="H128" s="74"/>
+      <c r="I128" s="74"/>
+      <c r="J128" s="74"/>
+      <c r="K128" s="74"/>
+      <c r="L128" s="74"/>
+      <c r="M128" s="74"/>
       <c r="O128" s="38" t="s">
         <v>496</v>
       </c>
@@ -29509,22 +29597,22 @@
       <c r="A129" s="53">
         <v>8</v>
       </c>
-      <c r="B129" s="81" t="s">
+      <c r="B129" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="C129" s="81"/>
-      <c r="D129" s="81"/>
-      <c r="E129" s="81"/>
-      <c r="F129" s="81"/>
-      <c r="G129" s="81" t="s">
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="H129" s="81"/>
-      <c r="I129" s="81"/>
-      <c r="J129" s="81"/>
-      <c r="K129" s="81"/>
-      <c r="L129" s="81"/>
-      <c r="M129" s="81"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="70"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="70"/>
       <c r="O129" s="38" t="s">
         <v>497</v>
       </c>
@@ -29533,22 +29621,22 @@
       <c r="A130" s="55">
         <v>9</v>
       </c>
-      <c r="B130" s="80" t="s">
+      <c r="B130" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="C130" s="80"/>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
-      <c r="F130" s="80"/>
-      <c r="G130" s="80" t="s">
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
-      <c r="J130" s="80"/>
-      <c r="K130" s="80"/>
-      <c r="L130" s="80"/>
-      <c r="M130" s="80"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="74"/>
+      <c r="K130" s="74"/>
+      <c r="L130" s="74"/>
+      <c r="M130" s="74"/>
       <c r="O130" s="38" t="s">
         <v>498</v>
       </c>
@@ -29560,22 +29648,22 @@
       <c r="A131" s="56">
         <v>10</v>
       </c>
-      <c r="B131" s="82" t="s">
+      <c r="B131" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="C131" s="80"/>
-      <c r="D131" s="80"/>
-      <c r="E131" s="80"/>
-      <c r="F131" s="80"/>
-      <c r="G131" s="82" t="s">
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="73" t="s">
         <v>438</v>
       </c>
-      <c r="H131" s="80"/>
-      <c r="I131" s="80"/>
-      <c r="J131" s="80"/>
-      <c r="K131" s="80"/>
-      <c r="L131" s="80"/>
-      <c r="M131" s="80"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="74"/>
+      <c r="L131" s="74"/>
+      <c r="M131" s="74"/>
       <c r="O131" s="38">
         <v>0</v>
       </c>
@@ -29584,22 +29672,22 @@
       <c r="A132" s="55">
         <v>11</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B132" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80" t="s">
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="80"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="74"/>
+      <c r="K132" s="74"/>
+      <c r="L132" s="74"/>
+      <c r="M132" s="74"/>
       <c r="O132" s="38">
         <v>0</v>
       </c>
@@ -29608,22 +29696,22 @@
       <c r="A133" s="53">
         <v>12</v>
       </c>
-      <c r="B133" s="81" t="s">
+      <c r="B133" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="C133" s="81"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
-      <c r="F133" s="81"/>
-      <c r="G133" s="81" t="s">
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="H133" s="81"/>
-      <c r="I133" s="81"/>
-      <c r="J133" s="81"/>
-      <c r="K133" s="81"/>
-      <c r="L133" s="81"/>
-      <c r="M133" s="81"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="70"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="70"/>
       <c r="O133" s="38">
         <v>0</v>
       </c>
@@ -29632,22 +29720,22 @@
       <c r="A134" s="38">
         <v>13</v>
       </c>
-      <c r="B134" s="78" t="s">
+      <c r="B134" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="C134" s="78"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="78" t="s">
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="H134" s="78"/>
-      <c r="I134" s="78"/>
-      <c r="J134" s="78"/>
-      <c r="K134" s="78"/>
-      <c r="L134" s="78"/>
-      <c r="M134" s="78"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
+      <c r="J134" s="69"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="69"/>
+      <c r="M134" s="69"/>
       <c r="O134" s="38">
         <v>0</v>
       </c>
@@ -29656,22 +29744,22 @@
       <c r="A135" s="53">
         <v>14</v>
       </c>
-      <c r="B135" s="81" t="s">
+      <c r="B135" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="C135" s="81"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81" t="s">
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="H135" s="81"/>
-      <c r="I135" s="81"/>
-      <c r="J135" s="81"/>
-      <c r="K135" s="81"/>
-      <c r="L135" s="81"/>
-      <c r="M135" s="81"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
       <c r="O135" s="38" t="s">
         <v>502</v>
       </c>
@@ -29683,22 +29771,22 @@
       <c r="A136" s="57">
         <v>15</v>
       </c>
-      <c r="B136" s="83" t="s">
+      <c r="B136" s="72" t="s">
         <v>447</v>
       </c>
-      <c r="C136" s="83"/>
-      <c r="D136" s="83"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="83" t="s">
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="H136" s="83"/>
-      <c r="I136" s="83"/>
-      <c r="J136" s="83"/>
-      <c r="K136" s="83"/>
-      <c r="L136" s="83"/>
-      <c r="M136" s="83"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
       <c r="O136" s="38" t="s">
         <v>502</v>
       </c>
@@ -29707,22 +29795,22 @@
       <c r="A137" s="58">
         <v>16</v>
       </c>
-      <c r="B137" s="83" t="s">
+      <c r="B137" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="C137" s="83"/>
-      <c r="D137" s="83"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="83" t="s">
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="H137" s="83"/>
-      <c r="I137" s="83"/>
-      <c r="J137" s="83"/>
-      <c r="K137" s="83"/>
-      <c r="L137" s="83"/>
-      <c r="M137" s="83"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="72"/>
       <c r="O137" s="38" t="s">
         <v>504</v>
       </c>
@@ -29734,22 +29822,22 @@
       <c r="A138" s="54">
         <v>17</v>
       </c>
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C138" s="81"/>
-      <c r="D138" s="81"/>
-      <c r="E138" s="81"/>
-      <c r="F138" s="81"/>
-      <c r="G138" s="81" t="s">
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="H138" s="81"/>
-      <c r="I138" s="81"/>
-      <c r="J138" s="81"/>
-      <c r="K138" s="81"/>
-      <c r="L138" s="81"/>
-      <c r="M138" s="81"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="70"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="70"/>
+      <c r="M138" s="70"/>
       <c r="O138" s="38" t="s">
         <v>504</v>
       </c>
@@ -29761,22 +29849,22 @@
       <c r="A139" s="58">
         <v>18</v>
       </c>
-      <c r="B139" s="83" t="s">
+      <c r="B139" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83" t="s">
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="H139" s="83"/>
-      <c r="I139" s="83"/>
-      <c r="J139" s="83"/>
-      <c r="K139" s="83"/>
-      <c r="L139" s="83"/>
-      <c r="M139" s="83"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
       <c r="O139" s="38" t="s">
         <v>507</v>
       </c>
@@ -29788,22 +29876,22 @@
       <c r="A140" s="54">
         <v>19</v>
       </c>
-      <c r="B140" s="81" t="s">
+      <c r="B140" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="C140" s="81"/>
-      <c r="D140" s="81"/>
-      <c r="E140" s="81"/>
-      <c r="F140" s="81"/>
-      <c r="G140" s="81" t="s">
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="70"/>
+      <c r="G140" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="H140" s="81"/>
-      <c r="I140" s="81"/>
-      <c r="J140" s="81"/>
-      <c r="K140" s="81"/>
-      <c r="L140" s="81"/>
-      <c r="M140" s="81"/>
+      <c r="H140" s="70"/>
+      <c r="I140" s="70"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="70"/>
+      <c r="L140" s="70"/>
+      <c r="M140" s="70"/>
       <c r="O140" s="38" t="s">
         <v>509</v>
       </c>
@@ -29815,22 +29903,22 @@
       <c r="A141" s="58">
         <v>20</v>
       </c>
-      <c r="B141" s="83" t="s">
+      <c r="B141" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83" t="s">
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="H141" s="83"/>
-      <c r="I141" s="83"/>
-      <c r="J141" s="83"/>
-      <c r="K141" s="83"/>
-      <c r="L141" s="83"/>
-      <c r="M141" s="83"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
       <c r="O141" s="38" t="s">
         <v>510</v>
       </c>
@@ -29842,22 +29930,22 @@
       <c r="A142" s="57">
         <v>21</v>
       </c>
-      <c r="B142" s="83" t="s">
+      <c r="B142" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="C142" s="83"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="83" t="s">
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="H142" s="83"/>
-      <c r="I142" s="83"/>
-      <c r="J142" s="83"/>
-      <c r="K142" s="83"/>
-      <c r="L142" s="83"/>
-      <c r="M142" s="83"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
       <c r="O142" s="38" t="s">
         <v>511</v>
       </c>
@@ -29869,22 +29957,22 @@
       <c r="A143" s="58">
         <v>22</v>
       </c>
-      <c r="B143" s="83" t="s">
+      <c r="B143" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83" t="s">
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="H143" s="83"/>
-      <c r="I143" s="83"/>
-      <c r="J143" s="83"/>
-      <c r="K143" s="83"/>
-      <c r="L143" s="83"/>
-      <c r="M143" s="83"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="72"/>
       <c r="O143" s="38" t="s">
         <v>512</v>
       </c>
@@ -29896,22 +29984,22 @@
       <c r="A144" s="54">
         <v>23</v>
       </c>
-      <c r="B144" s="81" t="s">
+      <c r="B144" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="C144" s="81"/>
-      <c r="D144" s="81"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="81"/>
-      <c r="G144" s="81" t="s">
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70" t="s">
         <v>464</v>
       </c>
-      <c r="H144" s="81"/>
-      <c r="I144" s="81"/>
-      <c r="J144" s="81"/>
-      <c r="K144" s="81"/>
-      <c r="L144" s="81"/>
-      <c r="M144" s="81"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="70"/>
+      <c r="M144" s="70"/>
       <c r="O144" s="38" t="s">
         <v>513</v>
       </c>
@@ -29923,22 +30011,22 @@
       <c r="A145" s="53">
         <v>24</v>
       </c>
-      <c r="B145" s="81" t="s">
+      <c r="B145" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81" t="s">
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="81"/>
-      <c r="M145" s="81"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="70"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="70"/>
+      <c r="L145" s="70"/>
+      <c r="M145" s="70"/>
       <c r="O145" s="38" t="s">
         <v>515</v>
       </c>
@@ -29950,22 +30038,22 @@
       <c r="A146" s="54">
         <v>25</v>
       </c>
-      <c r="B146" s="81" t="s">
+      <c r="B146" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C146" s="81"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
-      <c r="F146" s="81"/>
-      <c r="G146" s="81" t="s">
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="70"/>
+      <c r="F146" s="70"/>
+      <c r="G146" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="H146" s="81"/>
-      <c r="I146" s="81"/>
-      <c r="J146" s="81"/>
-      <c r="K146" s="81"/>
-      <c r="L146" s="81"/>
-      <c r="M146" s="81"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="70"/>
+      <c r="J146" s="70"/>
+      <c r="K146" s="70"/>
+      <c r="L146" s="70"/>
+      <c r="M146" s="70"/>
       <c r="O146" s="38">
         <v>0</v>
       </c>
@@ -29974,22 +30062,22 @@
       <c r="A147" s="53">
         <v>26</v>
       </c>
-      <c r="B147" s="81" t="s">
+      <c r="B147" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="C147" s="81"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="81" t="s">
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="H147" s="81"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="81"/>
-      <c r="K147" s="81"/>
-      <c r="L147" s="81"/>
-      <c r="M147" s="81"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="M147" s="70"/>
       <c r="O147" s="38">
         <v>0</v>
       </c>
@@ -29998,22 +30086,22 @@
       <c r="A148" s="54">
         <v>27</v>
       </c>
-      <c r="B148" s="84" t="s">
+      <c r="B148" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="C148" s="81"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
-      <c r="F148" s="81"/>
-      <c r="G148" s="84" t="s">
+      <c r="C148" s="70"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="H148" s="81"/>
-      <c r="I148" s="81"/>
-      <c r="J148" s="81"/>
-      <c r="K148" s="81"/>
-      <c r="L148" s="81"/>
-      <c r="M148" s="81"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="70"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="70"/>
+      <c r="L148" s="70"/>
+      <c r="M148" s="70"/>
       <c r="O148" s="38">
         <v>0</v>
       </c>
@@ -30022,22 +30110,22 @@
       <c r="A149">
         <v>28</v>
       </c>
-      <c r="B149" s="78" t="s">
+      <c r="B149" s="69" t="s">
         <v>473</v>
       </c>
-      <c r="C149" s="78"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="78" t="s">
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="69"/>
+      <c r="G149" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="H149" s="78"/>
-      <c r="I149" s="78"/>
-      <c r="J149" s="78"/>
-      <c r="K149" s="78"/>
-      <c r="L149" s="78"/>
-      <c r="M149" s="78"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="69"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="69"/>
+      <c r="M149" s="69"/>
       <c r="O149" s="38" t="s">
         <v>518</v>
       </c>
@@ -30046,22 +30134,22 @@
       <c r="A150" s="38">
         <v>29</v>
       </c>
-      <c r="B150" s="78" t="s">
+      <c r="B150" s="69" t="s">
         <v>475</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78" t="s">
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="H150" s="78"/>
-      <c r="I150" s="78"/>
-      <c r="J150" s="78"/>
-      <c r="K150" s="78"/>
-      <c r="L150" s="78"/>
-      <c r="M150" s="78"/>
+      <c r="H150" s="69"/>
+      <c r="I150" s="69"/>
+      <c r="J150" s="69"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="69"/>
+      <c r="M150" s="69"/>
       <c r="O150" s="38" t="s">
         <v>519</v>
       </c>
@@ -30070,22 +30158,22 @@
       <c r="A151">
         <v>30</v>
       </c>
-      <c r="B151" s="78" t="s">
+      <c r="B151" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="C151" s="78"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78" t="s">
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="H151" s="78"/>
-      <c r="I151" s="78"/>
-      <c r="J151" s="78"/>
-      <c r="K151" s="78"/>
-      <c r="L151" s="78"/>
-      <c r="M151" s="78"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
+      <c r="M151" s="69"/>
       <c r="O151" s="38" t="s">
         <v>501</v>
       </c>
@@ -30094,22 +30182,22 @@
       <c r="A152" s="38">
         <v>31</v>
       </c>
-      <c r="B152" s="78" t="s">
+      <c r="B152" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78" t="s">
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="H152" s="78"/>
-      <c r="I152" s="78"/>
-      <c r="J152" s="78"/>
-      <c r="K152" s="78"/>
-      <c r="L152" s="78"/>
-      <c r="M152" s="78"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
       <c r="O152">
         <v>0</v>
       </c>
@@ -30118,22 +30206,22 @@
       <c r="A153">
         <v>32</v>
       </c>
-      <c r="B153" s="78" t="s">
+      <c r="B153" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="C153" s="78"/>
-      <c r="D153" s="78"/>
-      <c r="E153" s="78"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="78" t="s">
+      <c r="C153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="H153" s="78"/>
-      <c r="I153" s="78"/>
-      <c r="J153" s="78"/>
-      <c r="K153" s="78"/>
-      <c r="L153" s="78"/>
-      <c r="M153" s="78"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="69"/>
+      <c r="M153" s="69"/>
       <c r="O153" s="38" t="s">
         <v>520</v>
       </c>
@@ -30142,106 +30230,104 @@
       <c r="A154" s="38">
         <v>33</v>
       </c>
-      <c r="B154" s="78" t="s">
+      <c r="B154" s="69" t="s">
         <v>483</v>
       </c>
-      <c r="C154" s="78"/>
-      <c r="D154" s="78"/>
-      <c r="E154" s="78"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78" t="s">
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="H154" s="78"/>
-      <c r="I154" s="78"/>
-      <c r="J154" s="78"/>
-      <c r="K154" s="78"/>
-      <c r="L154" s="78"/>
-      <c r="M154" s="78"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
       <c r="O154" s="38" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:M151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:M152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:M153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="G154:M154"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:M146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:M147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:M148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:M149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:M150"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:M141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:M142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:M143"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:M144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:M145"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:M136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:M137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:M138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:M139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:M140"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:M132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:M133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:M134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:M135"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:M126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:M127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:M128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:M129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:M130"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:M121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="G122:M122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="G123:M123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -30262,82 +30348,84 @@
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:M121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="G122:M122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="G123:M123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:M126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:M127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:M128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:M129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:M130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:M132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:M133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:M135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:M136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:M137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:M138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:M139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:M140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:M141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:M142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:M143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:M144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:M151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:M152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:M153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="G154:M154"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:M148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:M149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:M150"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30363,108 +30451,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30733,108 +30821,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -31603,108 +31691,108 @@
       <c r="AO84" s="8"/>
     </row>
     <row r="86" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63" t="s">
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
-      <c r="Q86" s="63"/>
-      <c r="R86" s="63"/>
-      <c r="S86" s="63"/>
-      <c r="T86" s="63"/>
-      <c r="U86" s="63"/>
-      <c r="V86" s="63"/>
-      <c r="W86" s="63"/>
-      <c r="X86" s="63"/>
-      <c r="Y86" s="63"/>
-      <c r="Z86" s="63"/>
-      <c r="AA86" s="63"/>
-      <c r="AB86" s="63"/>
-      <c r="AC86" s="63"/>
-      <c r="AD86" s="63"/>
-      <c r="AE86" s="63"/>
-      <c r="AF86" s="63"/>
-      <c r="AG86" s="63"/>
-      <c r="AH86" s="62" t="s">
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="64"/>
+      <c r="U86" s="64"/>
+      <c r="V86" s="64"/>
+      <c r="W86" s="64"/>
+      <c r="X86" s="64"/>
+      <c r="Y86" s="64"/>
+      <c r="Z86" s="64"/>
+      <c r="AA86" s="64"/>
+      <c r="AB86" s="64"/>
+      <c r="AC86" s="64"/>
+      <c r="AD86" s="64"/>
+      <c r="AE86" s="64"/>
+      <c r="AF86" s="64"/>
+      <c r="AG86" s="64"/>
+      <c r="AH86" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI86" s="62"/>
-      <c r="AJ86" s="62"/>
-      <c r="AK86" s="64" t="s">
+      <c r="AI86" s="63"/>
+      <c r="AJ86" s="63"/>
+      <c r="AK86" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="AL86" s="65"/>
-      <c r="AM86" s="65"/>
-      <c r="AN86" s="65"/>
-      <c r="AO86" s="65"/>
+      <c r="AL86" s="66"/>
+      <c r="AM86" s="66"/>
+      <c r="AN86" s="66"/>
+      <c r="AO86" s="66"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66" t="s">
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="66" t="s">
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66"/>
-      <c r="Q87" s="66" t="s">
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="R87" s="66"/>
-      <c r="S87" s="66"/>
-      <c r="T87" s="66"/>
-      <c r="U87" s="66"/>
-      <c r="V87" s="66"/>
-      <c r="W87" s="66"/>
-      <c r="X87" s="66"/>
-      <c r="Y87" s="66"/>
-      <c r="Z87" s="66"/>
-      <c r="AA87" s="66"/>
-      <c r="AB87" s="66"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="66" t="s">
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="67"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="67"/>
+      <c r="X87" s="67"/>
+      <c r="Y87" s="67"/>
+      <c r="Z87" s="67"/>
+      <c r="AA87" s="67"/>
+      <c r="AB87" s="67"/>
+      <c r="AC87" s="67"/>
+      <c r="AD87" s="67"/>
+      <c r="AE87" s="67"/>
+      <c r="AF87" s="67"/>
+      <c r="AG87" s="67"/>
+      <c r="AH87" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI87" s="66"/>
-      <c r="AJ87" s="66"/>
-      <c r="AK87" s="66"/>
-      <c r="AL87" s="66"/>
-      <c r="AM87" s="66"/>
-      <c r="AN87" s="66"/>
-      <c r="AO87" s="66"/>
+      <c r="AI87" s="67"/>
+      <c r="AJ87" s="67"/>
+      <c r="AK87" s="67"/>
+      <c r="AL87" s="67"/>
+      <c r="AM87" s="67"/>
+      <c r="AN87" s="67"/>
+      <c r="AO87" s="67"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
@@ -32006,108 +32094,108 @@
       <c r="AO108" s="4"/>
     </row>
     <row r="109" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A109" s="62" t="s">
+      <c r="A109" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="63" t="s">
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="63"/>
-      <c r="K109" s="63"/>
-      <c r="L109" s="63"/>
-      <c r="M109" s="63"/>
-      <c r="N109" s="63"/>
-      <c r="O109" s="63"/>
-      <c r="P109" s="63"/>
-      <c r="Q109" s="63"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="63"/>
-      <c r="T109" s="63"/>
-      <c r="U109" s="63"/>
-      <c r="V109" s="63"/>
-      <c r="W109" s="63"/>
-      <c r="X109" s="63"/>
-      <c r="Y109" s="63"/>
-      <c r="Z109" s="63"/>
-      <c r="AA109" s="63"/>
-      <c r="AB109" s="63"/>
-      <c r="AC109" s="63"/>
-      <c r="AD109" s="63"/>
-      <c r="AE109" s="63"/>
-      <c r="AF109" s="63"/>
-      <c r="AG109" s="63"/>
-      <c r="AH109" s="62" t="s">
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
+      <c r="L109" s="64"/>
+      <c r="M109" s="64"/>
+      <c r="N109" s="64"/>
+      <c r="O109" s="64"/>
+      <c r="P109" s="64"/>
+      <c r="Q109" s="64"/>
+      <c r="R109" s="64"/>
+      <c r="S109" s="64"/>
+      <c r="T109" s="64"/>
+      <c r="U109" s="64"/>
+      <c r="V109" s="64"/>
+      <c r="W109" s="64"/>
+      <c r="X109" s="64"/>
+      <c r="Y109" s="64"/>
+      <c r="Z109" s="64"/>
+      <c r="AA109" s="64"/>
+      <c r="AB109" s="64"/>
+      <c r="AC109" s="64"/>
+      <c r="AD109" s="64"/>
+      <c r="AE109" s="64"/>
+      <c r="AF109" s="64"/>
+      <c r="AG109" s="64"/>
+      <c r="AH109" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI109" s="62"/>
-      <c r="AJ109" s="62"/>
-      <c r="AK109" s="64" t="s">
+      <c r="AI109" s="63"/>
+      <c r="AJ109" s="63"/>
+      <c r="AK109" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="AL109" s="65"/>
-      <c r="AM109" s="65"/>
-      <c r="AN109" s="65"/>
-      <c r="AO109" s="65"/>
+      <c r="AL109" s="66"/>
+      <c r="AM109" s="66"/>
+      <c r="AN109" s="66"/>
+      <c r="AO109" s="66"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A110" s="66" t="s">
+      <c r="A110" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66" t="s">
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="66"/>
-      <c r="L110" s="66"/>
-      <c r="M110" s="66" t="s">
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="66"/>
-      <c r="O110" s="66"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="66" t="s">
+      <c r="N110" s="67"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="67"/>
+      <c r="Q110" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="R110" s="66"/>
-      <c r="S110" s="66"/>
-      <c r="T110" s="66"/>
-      <c r="U110" s="66"/>
-      <c r="V110" s="66"/>
-      <c r="W110" s="66"/>
-      <c r="X110" s="66"/>
-      <c r="Y110" s="66"/>
-      <c r="Z110" s="66"/>
-      <c r="AA110" s="66"/>
-      <c r="AB110" s="66"/>
-      <c r="AC110" s="66"/>
-      <c r="AD110" s="66"/>
-      <c r="AE110" s="66"/>
-      <c r="AF110" s="66"/>
-      <c r="AG110" s="66"/>
-      <c r="AH110" s="66" t="s">
+      <c r="R110" s="67"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="67"/>
+      <c r="U110" s="67"/>
+      <c r="V110" s="67"/>
+      <c r="W110" s="67"/>
+      <c r="X110" s="67"/>
+      <c r="Y110" s="67"/>
+      <c r="Z110" s="67"/>
+      <c r="AA110" s="67"/>
+      <c r="AB110" s="67"/>
+      <c r="AC110" s="67"/>
+      <c r="AD110" s="67"/>
+      <c r="AE110" s="67"/>
+      <c r="AF110" s="67"/>
+      <c r="AG110" s="67"/>
+      <c r="AH110" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI110" s="66"/>
-      <c r="AJ110" s="66"/>
-      <c r="AK110" s="66"/>
-      <c r="AL110" s="66"/>
-      <c r="AM110" s="66"/>
-      <c r="AN110" s="66"/>
-      <c r="AO110" s="66"/>
+      <c r="AI110" s="67"/>
+      <c r="AJ110" s="67"/>
+      <c r="AK110" s="67"/>
+      <c r="AL110" s="67"/>
+      <c r="AM110" s="67"/>
+      <c r="AN110" s="67"/>
+      <c r="AO110" s="67"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
@@ -32362,108 +32450,108 @@
       <c r="AO133" s="8"/>
     </row>
     <row r="135" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A135" s="62" t="s">
+      <c r="A135" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="62"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
-      <c r="F135" s="63" t="s">
+      <c r="B135" s="63"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
-      <c r="J135" s="63"/>
-      <c r="K135" s="63"/>
-      <c r="L135" s="63"/>
-      <c r="M135" s="63"/>
-      <c r="N135" s="63"/>
-      <c r="O135" s="63"/>
-      <c r="P135" s="63"/>
-      <c r="Q135" s="63"/>
-      <c r="R135" s="63"/>
-      <c r="S135" s="63"/>
-      <c r="T135" s="63"/>
-      <c r="U135" s="63"/>
-      <c r="V135" s="63"/>
-      <c r="W135" s="63"/>
-      <c r="X135" s="63"/>
-      <c r="Y135" s="63"/>
-      <c r="Z135" s="63"/>
-      <c r="AA135" s="63"/>
-      <c r="AB135" s="63"/>
-      <c r="AC135" s="63"/>
-      <c r="AD135" s="63"/>
-      <c r="AE135" s="63"/>
-      <c r="AF135" s="63"/>
-      <c r="AG135" s="63"/>
-      <c r="AH135" s="62" t="s">
+      <c r="G135" s="64"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="64"/>
+      <c r="K135" s="64"/>
+      <c r="L135" s="64"/>
+      <c r="M135" s="64"/>
+      <c r="N135" s="64"/>
+      <c r="O135" s="64"/>
+      <c r="P135" s="64"/>
+      <c r="Q135" s="64"/>
+      <c r="R135" s="64"/>
+      <c r="S135" s="64"/>
+      <c r="T135" s="64"/>
+      <c r="U135" s="64"/>
+      <c r="V135" s="64"/>
+      <c r="W135" s="64"/>
+      <c r="X135" s="64"/>
+      <c r="Y135" s="64"/>
+      <c r="Z135" s="64"/>
+      <c r="AA135" s="64"/>
+      <c r="AB135" s="64"/>
+      <c r="AC135" s="64"/>
+      <c r="AD135" s="64"/>
+      <c r="AE135" s="64"/>
+      <c r="AF135" s="64"/>
+      <c r="AG135" s="64"/>
+      <c r="AH135" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AI135" s="62"/>
-      <c r="AJ135" s="62"/>
-      <c r="AK135" s="64" t="s">
+      <c r="AI135" s="63"/>
+      <c r="AJ135" s="63"/>
+      <c r="AK135" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="AL135" s="65"/>
-      <c r="AM135" s="65"/>
-      <c r="AN135" s="65"/>
-      <c r="AO135" s="65"/>
+      <c r="AL135" s="66"/>
+      <c r="AM135" s="66"/>
+      <c r="AN135" s="66"/>
+      <c r="AO135" s="66"/>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A136" s="66" t="s">
+      <c r="A136" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="66" t="s">
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66" t="s">
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="67"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="N136" s="66"/>
-      <c r="O136" s="66"/>
-      <c r="P136" s="66"/>
-      <c r="Q136" s="66" t="s">
+      <c r="N136" s="67"/>
+      <c r="O136" s="67"/>
+      <c r="P136" s="67"/>
+      <c r="Q136" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="R136" s="66"/>
-      <c r="S136" s="66"/>
-      <c r="T136" s="66"/>
-      <c r="U136" s="66"/>
-      <c r="V136" s="66"/>
-      <c r="W136" s="66"/>
-      <c r="X136" s="66"/>
-      <c r="Y136" s="66"/>
-      <c r="Z136" s="66"/>
-      <c r="AA136" s="66"/>
-      <c r="AB136" s="66"/>
-      <c r="AC136" s="66"/>
-      <c r="AD136" s="66"/>
-      <c r="AE136" s="66"/>
-      <c r="AF136" s="66"/>
-      <c r="AG136" s="66"/>
-      <c r="AH136" s="66" t="s">
+      <c r="R136" s="67"/>
+      <c r="S136" s="67"/>
+      <c r="T136" s="67"/>
+      <c r="U136" s="67"/>
+      <c r="V136" s="67"/>
+      <c r="W136" s="67"/>
+      <c r="X136" s="67"/>
+      <c r="Y136" s="67"/>
+      <c r="Z136" s="67"/>
+      <c r="AA136" s="67"/>
+      <c r="AB136" s="67"/>
+      <c r="AC136" s="67"/>
+      <c r="AD136" s="67"/>
+      <c r="AE136" s="67"/>
+      <c r="AF136" s="67"/>
+      <c r="AG136" s="67"/>
+      <c r="AH136" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AI136" s="66"/>
-      <c r="AJ136" s="66"/>
-      <c r="AK136" s="66"/>
-      <c r="AL136" s="66"/>
-      <c r="AM136" s="66"/>
-      <c r="AN136" s="66"/>
-      <c r="AO136" s="66"/>
+      <c r="AI136" s="67"/>
+      <c r="AJ136" s="67"/>
+      <c r="AK136" s="67"/>
+      <c r="AL136" s="67"/>
+      <c r="AM136" s="67"/>
+      <c r="AN136" s="67"/>
+      <c r="AO136" s="67"/>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
@@ -32699,6 +32787,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:AG86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="AK86:AO86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:AG87"/>
+    <mergeCell ref="AH87:AJ87"/>
+    <mergeCell ref="AK87:AO87"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:AG109"/>
+    <mergeCell ref="AH109:AJ109"/>
+    <mergeCell ref="AK109:AO109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:AG110"/>
+    <mergeCell ref="AH110:AJ110"/>
+    <mergeCell ref="AK110:AO110"/>
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="F135:AG135"/>
     <mergeCell ref="AH135:AJ135"/>
@@ -32709,36 +32827,6 @@
     <mergeCell ref="Q136:AG136"/>
     <mergeCell ref="AH136:AJ136"/>
     <mergeCell ref="AK136:AO136"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:AG109"/>
-    <mergeCell ref="AH109:AJ109"/>
-    <mergeCell ref="AK109:AO109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:AG110"/>
-    <mergeCell ref="AH110:AJ110"/>
-    <mergeCell ref="AK110:AO110"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:AG86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AK86:AO86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:AG87"/>
-    <mergeCell ref="AH87:AJ87"/>
-    <mergeCell ref="AK87:AO87"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
